--- a/adstocked_media/media_data.xlsx
+++ b/adstocked_media/media_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://abeurope-my.sharepoint.com/personal/mattias_mutso_externi_cz/Documents/Documents/AsahiUK_MMM/adstocked_media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9ACED8E-5CC5-4528-9E70-B1C800AA62A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{B9ACED8E-5CC5-4528-9E70-B1C800AA62A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7AEAE86-B694-4B08-B69C-F96B3D9B8A48}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{08679BA8-D4A7-4C84-AD3C-48D9F272419A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
   <si>
     <t>Date</t>
   </si>
@@ -508,18 +508,41 @@
   <si>
     <t>m_digital_peroni0_total_sp</t>
   </si>
+  <si>
+    <t>m_ooh_peroni_total_sp</t>
+  </si>
+  <si>
+    <t>m_ooh_peroni_total_imp</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -542,9 +565,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -859,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDA9B9A-9634-4913-9070-7E7AEF315551}">
-  <dimension ref="A1:FA157"/>
+  <dimension ref="A1:FK157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" topLeftCell="ET1" workbookViewId="0">
+      <selection activeCell="FD10" sqref="FD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -870,7 +896,7 @@
     <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1342,8 +1368,14 @@
       <c r="FA1" t="s">
         <v>156</v>
       </c>
+      <c r="FB1" t="s">
+        <v>157</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>158</v>
+      </c>
     </row>
-    <row r="2" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44199</v>
       </c>
@@ -1815,8 +1847,14 @@
       <c r="FA2">
         <v>7707.22</v>
       </c>
+      <c r="FB2">
+        <v>0</v>
+      </c>
+      <c r="FC2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44206</v>
       </c>
@@ -2288,8 +2326,14 @@
       <c r="FA3">
         <v>33867.619999999995</v>
       </c>
+      <c r="FB3">
+        <v>0</v>
+      </c>
+      <c r="FC3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44213</v>
       </c>
@@ -2761,8 +2805,14 @@
       <c r="FA4">
         <v>30626.979999999996</v>
       </c>
+      <c r="FB4">
+        <v>0</v>
+      </c>
+      <c r="FC4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44220</v>
       </c>
@@ -3234,8 +3284,14 @@
       <c r="FA5">
         <v>57033.599999999999</v>
       </c>
+      <c r="FB5">
+        <v>0</v>
+      </c>
+      <c r="FC5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44227</v>
       </c>
@@ -3707,8 +3763,19 @@
       <c r="FA6">
         <v>43165.760000000002</v>
       </c>
+      <c r="FB6">
+        <v>0</v>
+      </c>
+      <c r="FC6">
+        <v>0</v>
+      </c>
+      <c r="FE6" s="2"/>
+      <c r="FF6" s="3"/>
+      <c r="FG6" s="3"/>
+      <c r="FJ6" s="4"/>
+      <c r="FK6" s="4"/>
     </row>
-    <row r="7" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44234</v>
       </c>
@@ -4180,8 +4247,19 @@
       <c r="FA7">
         <v>0</v>
       </c>
+      <c r="FB7">
+        <v>0</v>
+      </c>
+      <c r="FC7">
+        <v>0</v>
+      </c>
+      <c r="FE7" s="2"/>
+      <c r="FF7" s="3"/>
+      <c r="FG7" s="3"/>
+      <c r="FJ7" s="4"/>
+      <c r="FK7" s="4"/>
     </row>
-    <row r="8" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44241</v>
       </c>
@@ -4653,8 +4731,14 @@
       <c r="FA8">
         <v>0</v>
       </c>
+      <c r="FB8">
+        <v>0</v>
+      </c>
+      <c r="FC8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44248</v>
       </c>
@@ -5126,8 +5210,14 @@
       <c r="FA9">
         <v>0</v>
       </c>
+      <c r="FB9">
+        <v>0</v>
+      </c>
+      <c r="FC9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44255</v>
       </c>
@@ -5599,8 +5689,14 @@
       <c r="FA10">
         <v>0</v>
       </c>
+      <c r="FB10">
+        <v>0</v>
+      </c>
+      <c r="FC10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44262</v>
       </c>
@@ -6072,8 +6168,14 @@
       <c r="FA11">
         <v>0</v>
       </c>
+      <c r="FB11">
+        <v>0</v>
+      </c>
+      <c r="FC11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44269</v>
       </c>
@@ -6545,8 +6647,14 @@
       <c r="FA12">
         <v>0</v>
       </c>
+      <c r="FB12">
+        <v>0</v>
+      </c>
+      <c r="FC12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44276</v>
       </c>
@@ -7018,8 +7126,14 @@
       <c r="FA13">
         <v>0</v>
       </c>
+      <c r="FB13">
+        <v>0</v>
+      </c>
+      <c r="FC13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44283</v>
       </c>
@@ -7491,8 +7605,14 @@
       <c r="FA14">
         <v>0</v>
       </c>
+      <c r="FB14">
+        <v>0</v>
+      </c>
+      <c r="FC14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44290</v>
       </c>
@@ -7964,8 +8084,14 @@
       <c r="FA15">
         <v>0</v>
       </c>
+      <c r="FB15">
+        <v>0</v>
+      </c>
+      <c r="FC15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44297</v>
       </c>
@@ -8437,8 +8563,14 @@
       <c r="FA16">
         <v>0</v>
       </c>
+      <c r="FB16">
+        <v>0</v>
+      </c>
+      <c r="FC16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44304</v>
       </c>
@@ -8910,8 +9042,14 @@
       <c r="FA17">
         <v>0</v>
       </c>
+      <c r="FB17">
+        <v>0</v>
+      </c>
+      <c r="FC17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44311</v>
       </c>
@@ -9383,8 +9521,14 @@
       <c r="FA18">
         <v>0</v>
       </c>
+      <c r="FB18">
+        <v>0</v>
+      </c>
+      <c r="FC18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44318</v>
       </c>
@@ -9856,8 +10000,14 @@
       <c r="FA19">
         <v>0</v>
       </c>
+      <c r="FB19">
+        <v>0</v>
+      </c>
+      <c r="FC19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44325</v>
       </c>
@@ -10329,8 +10479,14 @@
       <c r="FA20">
         <v>0</v>
       </c>
+      <c r="FB20">
+        <v>0</v>
+      </c>
+      <c r="FC20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44332</v>
       </c>
@@ -10802,8 +10958,14 @@
       <c r="FA21">
         <v>0</v>
       </c>
+      <c r="FB21">
+        <v>0</v>
+      </c>
+      <c r="FC21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44339</v>
       </c>
@@ -11275,8 +11437,14 @@
       <c r="FA22">
         <v>0</v>
       </c>
+      <c r="FB22">
+        <v>0</v>
+      </c>
+      <c r="FC22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44346</v>
       </c>
@@ -11748,8 +11916,14 @@
       <c r="FA23">
         <v>0</v>
       </c>
+      <c r="FB23">
+        <v>0</v>
+      </c>
+      <c r="FC23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44353</v>
       </c>
@@ -12221,8 +12395,14 @@
       <c r="FA24">
         <v>0</v>
       </c>
+      <c r="FB24">
+        <v>0</v>
+      </c>
+      <c r="FC24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>44360</v>
       </c>
@@ -12694,8 +12874,14 @@
       <c r="FA25">
         <v>0</v>
       </c>
+      <c r="FB25">
+        <v>0</v>
+      </c>
+      <c r="FC25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>44367</v>
       </c>
@@ -13167,8 +13353,14 @@
       <c r="FA26">
         <v>0</v>
       </c>
+      <c r="FB26">
+        <v>0</v>
+      </c>
+      <c r="FC26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44374</v>
       </c>
@@ -13640,8 +13832,14 @@
       <c r="FA27">
         <v>0</v>
       </c>
+      <c r="FB27">
+        <v>42500</v>
+      </c>
+      <c r="FC27">
+        <v>8582362</v>
+      </c>
     </row>
-    <row r="28" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>44381</v>
       </c>
@@ -14113,8 +14311,14 @@
       <c r="FA28">
         <v>0</v>
       </c>
+      <c r="FB28">
+        <v>157250</v>
+      </c>
+      <c r="FC28">
+        <v>10771066</v>
+      </c>
     </row>
-    <row r="29" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>44388</v>
       </c>
@@ -14586,8 +14790,14 @@
       <c r="FA29">
         <v>89449.279999999999</v>
       </c>
+      <c r="FB29">
+        <v>0</v>
+      </c>
+      <c r="FC29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44395</v>
       </c>
@@ -15059,8 +15269,14 @@
       <c r="FA30">
         <v>19643.32</v>
       </c>
+      <c r="FB30">
+        <v>0</v>
+      </c>
+      <c r="FC30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>44402</v>
       </c>
@@ -15532,8 +15748,14 @@
       <c r="FA31">
         <v>0</v>
       </c>
+      <c r="FB31">
+        <v>0</v>
+      </c>
+      <c r="FC31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>44409</v>
       </c>
@@ -16005,8 +16227,14 @@
       <c r="FA32">
         <v>0</v>
       </c>
+      <c r="FB32">
+        <v>0</v>
+      </c>
+      <c r="FC32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>44416</v>
       </c>
@@ -16478,8 +16706,14 @@
       <c r="FA33">
         <v>0</v>
       </c>
+      <c r="FB33">
+        <v>0</v>
+      </c>
+      <c r="FC33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>44423</v>
       </c>
@@ -16951,8 +17185,14 @@
       <c r="FA34">
         <v>0</v>
       </c>
+      <c r="FB34">
+        <v>0</v>
+      </c>
+      <c r="FC34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>44430</v>
       </c>
@@ -17424,8 +17664,14 @@
       <c r="FA35">
         <v>0</v>
       </c>
+      <c r="FB35">
+        <v>0</v>
+      </c>
+      <c r="FC35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>44437</v>
       </c>
@@ -17897,8 +18143,14 @@
       <c r="FA36">
         <v>0</v>
       </c>
+      <c r="FB36">
+        <v>0</v>
+      </c>
+      <c r="FC36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>44444</v>
       </c>
@@ -18370,8 +18622,14 @@
       <c r="FA37">
         <v>0</v>
       </c>
+      <c r="FB37">
+        <v>0</v>
+      </c>
+      <c r="FC37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>44451</v>
       </c>
@@ -18843,8 +19101,14 @@
       <c r="FA38">
         <v>0</v>
       </c>
+      <c r="FB38">
+        <v>184166.67</v>
+      </c>
+      <c r="FC38">
+        <v>4134244</v>
+      </c>
     </row>
-    <row r="39" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>44458</v>
       </c>
@@ -19316,8 +19580,14 @@
       <c r="FA39">
         <v>0</v>
       </c>
+      <c r="FB39">
+        <v>56666.67</v>
+      </c>
+      <c r="FC39">
+        <v>4134244</v>
+      </c>
     </row>
-    <row r="40" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>44465</v>
       </c>
@@ -19789,8 +20059,14 @@
       <c r="FA40">
         <v>103508.13</v>
       </c>
+      <c r="FB40">
+        <v>169433.33</v>
+      </c>
+      <c r="FC40">
+        <v>8503005</v>
+      </c>
     </row>
-    <row r="41" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>44472</v>
       </c>
@@ -20262,8 +20538,14 @@
       <c r="FA41">
         <v>0</v>
       </c>
+      <c r="FB41">
+        <v>112766.67</v>
+      </c>
+      <c r="FC41">
+        <v>4368760</v>
+      </c>
     </row>
-    <row r="42" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>44479</v>
       </c>
@@ -20735,8 +21017,14 @@
       <c r="FA42">
         <v>0</v>
       </c>
+      <c r="FB42">
+        <v>27766.67</v>
+      </c>
+      <c r="FC42">
+        <v>3532690</v>
+      </c>
     </row>
-    <row r="43" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>44486</v>
       </c>
@@ -21208,8 +21496,14 @@
       <c r="FA43">
         <v>4996.1557621409393</v>
       </c>
+      <c r="FB43">
+        <v>0</v>
+      </c>
+      <c r="FC43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>44493</v>
       </c>
@@ -21681,8 +21975,14 @@
       <c r="FA44">
         <v>10558.909537711086</v>
       </c>
+      <c r="FB44">
+        <v>0</v>
+      </c>
+      <c r="FC44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44500</v>
       </c>
@@ -22154,8 +22454,14 @@
       <c r="FA45">
         <v>7681.6106124937733</v>
       </c>
+      <c r="FB45">
+        <v>0</v>
+      </c>
+      <c r="FC45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44507</v>
       </c>
@@ -22627,8 +22933,14 @@
       <c r="FA46">
         <v>7579.229381854957</v>
       </c>
+      <c r="FB46">
+        <v>0</v>
+      </c>
+      <c r="FC46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>44514</v>
       </c>
@@ -23100,8 +23412,14 @@
       <c r="FA47">
         <v>7532.1436743677641</v>
       </c>
+      <c r="FB47">
+        <v>0</v>
+      </c>
+      <c r="FC47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>44521</v>
       </c>
@@ -23573,8 +23891,14 @@
       <c r="FA48">
         <v>6837.0861923068342</v>
       </c>
+      <c r="FB48">
+        <v>0</v>
+      </c>
+      <c r="FC48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>44528</v>
       </c>
@@ -24046,8 +24370,14 @@
       <c r="FA49">
         <v>3524.3048391246475</v>
       </c>
+      <c r="FB49">
+        <v>0</v>
+      </c>
+      <c r="FC49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>44535</v>
       </c>
@@ -24519,8 +24849,14 @@
       <c r="FA50">
         <v>0</v>
       </c>
+      <c r="FB50">
+        <v>0</v>
+      </c>
+      <c r="FC50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>44542</v>
       </c>
@@ -24992,8 +25328,14 @@
       <c r="FA51">
         <v>0</v>
       </c>
+      <c r="FB51">
+        <v>0</v>
+      </c>
+      <c r="FC51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44549</v>
       </c>
@@ -25465,8 +25807,14 @@
       <c r="FA52">
         <v>0</v>
       </c>
+      <c r="FB52">
+        <v>0</v>
+      </c>
+      <c r="FC52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>44556</v>
       </c>
@@ -25938,8 +26286,14 @@
       <c r="FA53">
         <v>0</v>
       </c>
+      <c r="FB53">
+        <v>0</v>
+      </c>
+      <c r="FC53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>44563</v>
       </c>
@@ -26411,8 +26765,14 @@
       <c r="FA54">
         <v>0</v>
       </c>
+      <c r="FB54">
+        <v>0</v>
+      </c>
+      <c r="FC54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>44570</v>
       </c>
@@ -26884,8 +27244,14 @@
       <c r="FA55">
         <v>0</v>
       </c>
+      <c r="FB55">
+        <v>0</v>
+      </c>
+      <c r="FC55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>44577</v>
       </c>
@@ -27357,8 +27723,14 @@
       <c r="FA56">
         <v>0</v>
       </c>
+      <c r="FB56">
+        <v>0</v>
+      </c>
+      <c r="FC56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>44584</v>
       </c>
@@ -27830,8 +28202,14 @@
       <c r="FA57">
         <v>0</v>
       </c>
+      <c r="FB57">
+        <v>0</v>
+      </c>
+      <c r="FC57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>44591</v>
       </c>
@@ -28303,8 +28681,14 @@
       <c r="FA58">
         <v>0</v>
       </c>
+      <c r="FB58">
+        <v>0</v>
+      </c>
+      <c r="FC58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>44598</v>
       </c>
@@ -28776,8 +29160,14 @@
       <c r="FA59">
         <v>0</v>
       </c>
+      <c r="FB59">
+        <v>0</v>
+      </c>
+      <c r="FC59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>44605</v>
       </c>
@@ -29249,8 +29639,14 @@
       <c r="FA60">
         <v>0</v>
       </c>
+      <c r="FB60">
+        <v>0</v>
+      </c>
+      <c r="FC60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>44612</v>
       </c>
@@ -29722,8 +30118,14 @@
       <c r="FA61">
         <v>0</v>
       </c>
+      <c r="FB61">
+        <v>0</v>
+      </c>
+      <c r="FC61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>44619</v>
       </c>
@@ -30195,8 +30597,14 @@
       <c r="FA62">
         <v>0</v>
       </c>
+      <c r="FB62">
+        <v>0</v>
+      </c>
+      <c r="FC62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>44626</v>
       </c>
@@ -30668,8 +31076,14 @@
       <c r="FA63">
         <v>0</v>
       </c>
+      <c r="FB63">
+        <v>0</v>
+      </c>
+      <c r="FC63">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>44633</v>
       </c>
@@ -31141,8 +31555,14 @@
       <c r="FA64">
         <v>0</v>
       </c>
+      <c r="FB64">
+        <v>0</v>
+      </c>
+      <c r="FC64">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>44640</v>
       </c>
@@ -31614,8 +32034,14 @@
       <c r="FA65">
         <v>0</v>
       </c>
+      <c r="FB65">
+        <v>0</v>
+      </c>
+      <c r="FC65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>44647</v>
       </c>
@@ -32087,8 +32513,14 @@
       <c r="FA66">
         <v>0</v>
       </c>
+      <c r="FB66">
+        <v>0</v>
+      </c>
+      <c r="FC66">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>44654</v>
       </c>
@@ -32560,8 +32992,14 @@
       <c r="FA67">
         <v>0</v>
       </c>
+      <c r="FB67">
+        <v>0</v>
+      </c>
+      <c r="FC67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>44661</v>
       </c>
@@ -33033,8 +33471,14 @@
       <c r="FA68">
         <v>0</v>
       </c>
+      <c r="FB68">
+        <v>0</v>
+      </c>
+      <c r="FC68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>44668</v>
       </c>
@@ -33506,8 +33950,14 @@
       <c r="FA69">
         <v>0</v>
       </c>
+      <c r="FB69">
+        <v>0</v>
+      </c>
+      <c r="FC69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>44675</v>
       </c>
@@ -33979,8 +34429,14 @@
       <c r="FA70">
         <v>0</v>
       </c>
+      <c r="FB70">
+        <v>0</v>
+      </c>
+      <c r="FC70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>44682</v>
       </c>
@@ -34452,8 +34908,14 @@
       <c r="FA71">
         <v>0</v>
       </c>
+      <c r="FB71">
+        <v>216079.7</v>
+      </c>
+      <c r="FC71">
+        <v>75503325</v>
+      </c>
     </row>
-    <row r="72" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>44689</v>
       </c>
@@ -34925,8 +35387,14 @@
       <c r="FA72">
         <v>0</v>
       </c>
+      <c r="FB72">
+        <v>206033.06</v>
+      </c>
+      <c r="FC72">
+        <v>74513696</v>
+      </c>
     </row>
-    <row r="73" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>44696</v>
       </c>
@@ -35398,8 +35866,14 @@
       <c r="FA73">
         <v>0</v>
       </c>
+      <c r="FB73">
+        <v>127697.93</v>
+      </c>
+      <c r="FC73">
+        <v>32218482</v>
+      </c>
     </row>
-    <row r="74" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>44703</v>
       </c>
@@ -35871,8 +36345,14 @@
       <c r="FA74">
         <v>0</v>
       </c>
+      <c r="FB74">
+        <v>126056.21</v>
+      </c>
+      <c r="FC74">
+        <v>34833419</v>
+      </c>
     </row>
-    <row r="75" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>44710</v>
       </c>
@@ -36344,8 +36824,14 @@
       <c r="FA75">
         <v>0</v>
       </c>
+      <c r="FB75">
+        <v>0</v>
+      </c>
+      <c r="FC75">
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>44717</v>
       </c>
@@ -36817,8 +37303,14 @@
       <c r="FA76">
         <v>0</v>
       </c>
+      <c r="FB76">
+        <v>0</v>
+      </c>
+      <c r="FC76">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>44724</v>
       </c>
@@ -37290,8 +37782,14 @@
       <c r="FA77">
         <v>0</v>
       </c>
+      <c r="FB77">
+        <v>0</v>
+      </c>
+      <c r="FC77">
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>44731</v>
       </c>
@@ -37763,8 +38261,14 @@
       <c r="FA78">
         <v>0</v>
       </c>
+      <c r="FB78">
+        <v>0</v>
+      </c>
+      <c r="FC78">
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>44738</v>
       </c>
@@ -38236,8 +38740,14 @@
       <c r="FA79">
         <v>0</v>
       </c>
+      <c r="FB79">
+        <v>0</v>
+      </c>
+      <c r="FC79">
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>44745</v>
       </c>
@@ -38709,8 +39219,14 @@
       <c r="FA80">
         <v>0</v>
       </c>
+      <c r="FB80">
+        <v>0</v>
+      </c>
+      <c r="FC80">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>44752</v>
       </c>
@@ -39182,8 +39698,14 @@
       <c r="FA81">
         <v>0</v>
       </c>
+      <c r="FB81">
+        <v>0</v>
+      </c>
+      <c r="FC81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>44759</v>
       </c>
@@ -39655,8 +40177,14 @@
       <c r="FA82">
         <v>0</v>
       </c>
+      <c r="FB82">
+        <v>0</v>
+      </c>
+      <c r="FC82">
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>44766</v>
       </c>
@@ -40128,8 +40656,14 @@
       <c r="FA83">
         <v>0</v>
       </c>
+      <c r="FB83">
+        <v>0</v>
+      </c>
+      <c r="FC83">
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>44773</v>
       </c>
@@ -40601,8 +41135,14 @@
       <c r="FA84">
         <v>0</v>
       </c>
+      <c r="FB84">
+        <v>0</v>
+      </c>
+      <c r="FC84">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>44780</v>
       </c>
@@ -41074,8 +41614,14 @@
       <c r="FA85">
         <v>0</v>
       </c>
+      <c r="FB85">
+        <v>0</v>
+      </c>
+      <c r="FC85">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>44787</v>
       </c>
@@ -41547,8 +42093,14 @@
       <c r="FA86">
         <v>0</v>
       </c>
+      <c r="FB86">
+        <v>0</v>
+      </c>
+      <c r="FC86">
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>44794</v>
       </c>
@@ -42020,8 +42572,14 @@
       <c r="FA87">
         <v>0</v>
       </c>
+      <c r="FB87">
+        <v>0</v>
+      </c>
+      <c r="FC87">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>44801</v>
       </c>
@@ -42493,8 +43051,14 @@
       <c r="FA88">
         <v>0</v>
       </c>
+      <c r="FB88">
+        <v>0</v>
+      </c>
+      <c r="FC88">
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>44808</v>
       </c>
@@ -42966,8 +43530,14 @@
       <c r="FA89">
         <v>0</v>
       </c>
+      <c r="FB89">
+        <v>0</v>
+      </c>
+      <c r="FC89">
+        <v>0</v>
+      </c>
     </row>
-    <row r="90" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>44815</v>
       </c>
@@ -43439,8 +44009,14 @@
       <c r="FA90">
         <v>0</v>
       </c>
+      <c r="FB90">
+        <v>0</v>
+      </c>
+      <c r="FC90">
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>44822</v>
       </c>
@@ -43912,8 +44488,14 @@
       <c r="FA91">
         <v>0</v>
       </c>
+      <c r="FB91">
+        <v>0</v>
+      </c>
+      <c r="FC91">
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>44829</v>
       </c>
@@ -44385,8 +44967,14 @@
       <c r="FA92">
         <v>0</v>
       </c>
+      <c r="FB92">
+        <v>0</v>
+      </c>
+      <c r="FC92">
+        <v>0</v>
+      </c>
     </row>
-    <row r="93" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>44836</v>
       </c>
@@ -44858,8 +45446,14 @@
       <c r="FA93">
         <v>0</v>
       </c>
+      <c r="FB93">
+        <v>0</v>
+      </c>
+      <c r="FC93">
+        <v>0</v>
+      </c>
     </row>
-    <row r="94" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>44843</v>
       </c>
@@ -45331,8 +45925,14 @@
       <c r="FA94">
         <v>0</v>
       </c>
+      <c r="FB94">
+        <v>0</v>
+      </c>
+      <c r="FC94">
+        <v>0</v>
+      </c>
     </row>
-    <row r="95" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>44850</v>
       </c>
@@ -45804,8 +46404,14 @@
       <c r="FA95">
         <v>0</v>
       </c>
+      <c r="FB95">
+        <v>0</v>
+      </c>
+      <c r="FC95">
+        <v>0</v>
+      </c>
     </row>
-    <row r="96" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>44857</v>
       </c>
@@ -46277,8 +46883,14 @@
       <c r="FA96">
         <v>0</v>
       </c>
+      <c r="FB96">
+        <v>0</v>
+      </c>
+      <c r="FC96">
+        <v>0</v>
+      </c>
     </row>
-    <row r="97" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>44864</v>
       </c>
@@ -46750,8 +47362,14 @@
       <c r="FA97">
         <v>0</v>
       </c>
+      <c r="FB97">
+        <v>0</v>
+      </c>
+      <c r="FC97">
+        <v>0</v>
+      </c>
     </row>
-    <row r="98" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>44871</v>
       </c>
@@ -47223,8 +47841,14 @@
       <c r="FA98">
         <v>0</v>
       </c>
+      <c r="FB98">
+        <v>0</v>
+      </c>
+      <c r="FC98">
+        <v>0</v>
+      </c>
     </row>
-    <row r="99" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>44878</v>
       </c>
@@ -47696,8 +48320,14 @@
       <c r="FA99">
         <v>0</v>
       </c>
+      <c r="FB99">
+        <v>341132.93</v>
+      </c>
+      <c r="FC99">
+        <v>172805568</v>
+      </c>
     </row>
-    <row r="100" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>44885</v>
       </c>
@@ -48169,8 +48799,14 @@
       <c r="FA100">
         <v>0</v>
       </c>
+      <c r="FB100">
+        <v>341200.83</v>
+      </c>
+      <c r="FC100">
+        <v>173064019</v>
+      </c>
     </row>
-    <row r="101" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>44892</v>
       </c>
@@ -48642,8 +49278,14 @@
       <c r="FA101">
         <v>0</v>
       </c>
+      <c r="FB101">
+        <v>100327.37</v>
+      </c>
+      <c r="FC101">
+        <v>44156528</v>
+      </c>
     </row>
-    <row r="102" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>44899</v>
       </c>
@@ -49115,8 +49757,14 @@
       <c r="FA102">
         <v>0</v>
       </c>
+      <c r="FB102">
+        <v>100327.37</v>
+      </c>
+      <c r="FC102">
+        <v>44156528</v>
+      </c>
     </row>
-    <row r="103" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>44906</v>
       </c>
@@ -49588,8 +50236,14 @@
       <c r="FA103">
         <v>0</v>
       </c>
+      <c r="FB103">
+        <v>0</v>
+      </c>
+      <c r="FC103">
+        <v>0</v>
+      </c>
     </row>
-    <row r="104" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>44913</v>
       </c>
@@ -50061,8 +50715,14 @@
       <c r="FA104">
         <v>0</v>
       </c>
+      <c r="FB104">
+        <v>0</v>
+      </c>
+      <c r="FC104">
+        <v>0</v>
+      </c>
     </row>
-    <row r="105" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>44920</v>
       </c>
@@ -50534,8 +51194,14 @@
       <c r="FA105">
         <v>0</v>
       </c>
+      <c r="FB105">
+        <v>0</v>
+      </c>
+      <c r="FC105">
+        <v>0</v>
+      </c>
     </row>
-    <row r="106" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>44927</v>
       </c>
@@ -51007,8 +51673,14 @@
       <c r="FA106">
         <v>0</v>
       </c>
+      <c r="FB106">
+        <v>0</v>
+      </c>
+      <c r="FC106">
+        <v>0</v>
+      </c>
     </row>
-    <row r="107" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>44934</v>
       </c>
@@ -51480,8 +52152,14 @@
       <c r="FA107">
         <v>0</v>
       </c>
+      <c r="FB107">
+        <v>93174.83</v>
+      </c>
+      <c r="FC107">
+        <v>20872432</v>
+      </c>
     </row>
-    <row r="108" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>44941</v>
       </c>
@@ -51953,8 +52631,14 @@
       <c r="FA108">
         <v>0</v>
       </c>
+      <c r="FB108">
+        <v>94880.7</v>
+      </c>
+      <c r="FC108">
+        <v>21011262</v>
+      </c>
     </row>
-    <row r="109" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>44948</v>
       </c>
@@ -52426,8 +53110,14 @@
       <c r="FA109">
         <v>0</v>
       </c>
+      <c r="FB109">
+        <v>0</v>
+      </c>
+      <c r="FC109">
+        <v>0</v>
+      </c>
     </row>
-    <row r="110" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>44955</v>
       </c>
@@ -52899,8 +53589,14 @@
       <c r="FA110">
         <v>0</v>
       </c>
+      <c r="FB110">
+        <v>0</v>
+      </c>
+      <c r="FC110">
+        <v>0</v>
+      </c>
     </row>
-    <row r="111" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>44962</v>
       </c>
@@ -53372,8 +54068,14 @@
       <c r="FA111">
         <v>0</v>
       </c>
+      <c r="FB111">
+        <v>0</v>
+      </c>
+      <c r="FC111">
+        <v>0</v>
+      </c>
     </row>
-    <row r="112" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>44969</v>
       </c>
@@ -53845,8 +54547,14 @@
       <c r="FA112">
         <v>0</v>
       </c>
+      <c r="FB112">
+        <v>0</v>
+      </c>
+      <c r="FC112">
+        <v>0</v>
+      </c>
     </row>
-    <row r="113" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>44976</v>
       </c>
@@ -54318,8 +55026,14 @@
       <c r="FA113">
         <v>0</v>
       </c>
+      <c r="FB113">
+        <v>0</v>
+      </c>
+      <c r="FC113">
+        <v>0</v>
+      </c>
     </row>
-    <row r="114" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>44983</v>
       </c>
@@ -54791,8 +55505,14 @@
       <c r="FA114">
         <v>0</v>
       </c>
+      <c r="FB114">
+        <v>0</v>
+      </c>
+      <c r="FC114">
+        <v>0</v>
+      </c>
     </row>
-    <row r="115" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>44990</v>
       </c>
@@ -55264,8 +55984,14 @@
       <c r="FA115">
         <v>0</v>
       </c>
+      <c r="FB115">
+        <v>0</v>
+      </c>
+      <c r="FC115">
+        <v>0</v>
+      </c>
     </row>
-    <row r="116" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>44997</v>
       </c>
@@ -55737,8 +56463,14 @@
       <c r="FA116">
         <v>0</v>
       </c>
+      <c r="FB116">
+        <v>0</v>
+      </c>
+      <c r="FC116">
+        <v>0</v>
+      </c>
     </row>
-    <row r="117" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>45004</v>
       </c>
@@ -56210,8 +56942,14 @@
       <c r="FA117">
         <v>0</v>
       </c>
+      <c r="FB117">
+        <v>0</v>
+      </c>
+      <c r="FC117">
+        <v>0</v>
+      </c>
     </row>
-    <row r="118" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>45011</v>
       </c>
@@ -56683,8 +57421,14 @@
       <c r="FA118">
         <v>0</v>
       </c>
+      <c r="FB118">
+        <v>0</v>
+      </c>
+      <c r="FC118">
+        <v>0</v>
+      </c>
     </row>
-    <row r="119" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>45018</v>
       </c>
@@ -57156,8 +57900,14 @@
       <c r="FA119">
         <v>0</v>
       </c>
+      <c r="FB119">
+        <v>0</v>
+      </c>
+      <c r="FC119">
+        <v>0</v>
+      </c>
     </row>
-    <row r="120" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>45025</v>
       </c>
@@ -57629,8 +58379,14 @@
       <c r="FA120">
         <v>0</v>
       </c>
+      <c r="FB120">
+        <v>0</v>
+      </c>
+      <c r="FC120">
+        <v>0</v>
+      </c>
     </row>
-    <row r="121" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>45032</v>
       </c>
@@ -58102,8 +58858,14 @@
       <c r="FA121">
         <v>0</v>
       </c>
+      <c r="FB121">
+        <v>0</v>
+      </c>
+      <c r="FC121">
+        <v>0</v>
+      </c>
     </row>
-    <row r="122" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>45039</v>
       </c>
@@ -58575,8 +59337,14 @@
       <c r="FA122">
         <v>0</v>
       </c>
+      <c r="FB122">
+        <v>0</v>
+      </c>
+      <c r="FC122">
+        <v>0</v>
+      </c>
     </row>
-    <row r="123" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>45046</v>
       </c>
@@ -59048,8 +59816,14 @@
       <c r="FA123">
         <v>0</v>
       </c>
+      <c r="FB123">
+        <v>0</v>
+      </c>
+      <c r="FC123">
+        <v>0</v>
+      </c>
     </row>
-    <row r="124" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>45053</v>
       </c>
@@ -59521,8 +60295,14 @@
       <c r="FA124">
         <v>0</v>
       </c>
+      <c r="FB124">
+        <v>0</v>
+      </c>
+      <c r="FC124">
+        <v>0</v>
+      </c>
     </row>
-    <row r="125" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>45060</v>
       </c>
@@ -59994,8 +60774,14 @@
       <c r="FA125">
         <v>0</v>
       </c>
+      <c r="FB125">
+        <v>0</v>
+      </c>
+      <c r="FC125">
+        <v>0</v>
+      </c>
     </row>
-    <row r="126" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>45067</v>
       </c>
@@ -60467,8 +61253,14 @@
       <c r="FA126">
         <v>0</v>
       </c>
+      <c r="FB126">
+        <v>0</v>
+      </c>
+      <c r="FC126">
+        <v>0</v>
+      </c>
     </row>
-    <row r="127" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>45074</v>
       </c>
@@ -60940,8 +61732,14 @@
       <c r="FA127">
         <v>0</v>
       </c>
+      <c r="FB127">
+        <v>179541.55</v>
+      </c>
+      <c r="FC127">
+        <v>154444995</v>
+      </c>
     </row>
-    <row r="128" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>45081</v>
       </c>
@@ -61413,8 +62211,14 @@
       <c r="FA128">
         <v>0</v>
       </c>
+      <c r="FB128">
+        <v>179460.74</v>
+      </c>
+      <c r="FC128">
+        <v>154410284</v>
+      </c>
     </row>
-    <row r="129" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>45088</v>
       </c>
@@ -61886,8 +62690,14 @@
       <c r="FA129">
         <v>0</v>
       </c>
+      <c r="FB129">
+        <v>216244.27</v>
+      </c>
+      <c r="FC129">
+        <v>25823727</v>
+      </c>
     </row>
-    <row r="130" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>45095</v>
       </c>
@@ -62359,8 +63169,14 @@
       <c r="FA130">
         <v>0</v>
       </c>
+      <c r="FB130">
+        <v>216244.27</v>
+      </c>
+      <c r="FC130">
+        <v>25823727</v>
+      </c>
     </row>
-    <row r="131" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>45102</v>
       </c>
@@ -62832,8 +63648,14 @@
       <c r="FA131">
         <v>0</v>
       </c>
+      <c r="FB131">
+        <v>0</v>
+      </c>
+      <c r="FC131">
+        <v>0</v>
+      </c>
     </row>
-    <row r="132" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>45109</v>
       </c>
@@ -63305,8 +64127,14 @@
       <c r="FA132">
         <v>0</v>
       </c>
+      <c r="FB132">
+        <v>0</v>
+      </c>
+      <c r="FC132">
+        <v>0</v>
+      </c>
     </row>
-    <row r="133" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>45116</v>
       </c>
@@ -63778,8 +64606,14 @@
       <c r="FA133">
         <v>0</v>
       </c>
+      <c r="FB133">
+        <v>68886.880000000005</v>
+      </c>
+      <c r="FC133">
+        <v>21747975</v>
+      </c>
     </row>
-    <row r="134" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>45123</v>
       </c>
@@ -64251,8 +65085,14 @@
       <c r="FA134">
         <v>0</v>
       </c>
+      <c r="FB134">
+        <v>68886.880000000005</v>
+      </c>
+      <c r="FC134">
+        <v>21747975</v>
+      </c>
     </row>
-    <row r="135" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>45130</v>
       </c>
@@ -64724,8 +65564,14 @@
       <c r="FA135">
         <v>0</v>
       </c>
+      <c r="FB135">
+        <v>0</v>
+      </c>
+      <c r="FC135">
+        <v>0</v>
+      </c>
     </row>
-    <row r="136" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>45137</v>
       </c>
@@ -65197,8 +66043,14 @@
       <c r="FA136">
         <v>0</v>
       </c>
+      <c r="FB136">
+        <v>0</v>
+      </c>
+      <c r="FC136">
+        <v>0</v>
+      </c>
     </row>
-    <row r="137" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>45144</v>
       </c>
@@ -65670,8 +66522,14 @@
       <c r="FA137">
         <v>0</v>
       </c>
+      <c r="FB137">
+        <v>77010.95</v>
+      </c>
+      <c r="FC137">
+        <v>24165755</v>
+      </c>
     </row>
-    <row r="138" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>45151</v>
       </c>
@@ -66143,8 +67001,14 @@
       <c r="FA138">
         <v>0</v>
       </c>
+      <c r="FB138">
+        <v>77010.95</v>
+      </c>
+      <c r="FC138">
+        <v>24165755</v>
+      </c>
     </row>
-    <row r="139" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>45158</v>
       </c>
@@ -66616,8 +67480,14 @@
       <c r="FA139">
         <v>0</v>
       </c>
+      <c r="FB139">
+        <v>0</v>
+      </c>
+      <c r="FC139">
+        <v>0</v>
+      </c>
     </row>
-    <row r="140" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>45165</v>
       </c>
@@ -67089,8 +67959,14 @@
       <c r="FA140">
         <v>0</v>
       </c>
+      <c r="FB140">
+        <v>0</v>
+      </c>
+      <c r="FC140">
+        <v>0</v>
+      </c>
     </row>
-    <row r="141" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>45172</v>
       </c>
@@ -67562,8 +68438,14 @@
       <c r="FA141">
         <v>0</v>
       </c>
+      <c r="FB141">
+        <v>0</v>
+      </c>
+      <c r="FC141">
+        <v>0</v>
+      </c>
     </row>
-    <row r="142" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>45179</v>
       </c>
@@ -68035,8 +68917,14 @@
       <c r="FA142">
         <v>0</v>
       </c>
+      <c r="FB142">
+        <v>0</v>
+      </c>
+      <c r="FC142">
+        <v>0</v>
+      </c>
     </row>
-    <row r="143" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>45186</v>
       </c>
@@ -68508,8 +69396,14 @@
       <c r="FA143">
         <v>0</v>
       </c>
+      <c r="FB143">
+        <v>0</v>
+      </c>
+      <c r="FC143">
+        <v>0</v>
+      </c>
     </row>
-    <row r="144" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>45193</v>
       </c>
@@ -68981,8 +69875,14 @@
       <c r="FA144">
         <v>0</v>
       </c>
+      <c r="FB144">
+        <v>0</v>
+      </c>
+      <c r="FC144">
+        <v>0</v>
+      </c>
     </row>
-    <row r="145" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>45200</v>
       </c>
@@ -69454,8 +70354,14 @@
       <c r="FA145">
         <v>0</v>
       </c>
+      <c r="FB145">
+        <v>0</v>
+      </c>
+      <c r="FC145">
+        <v>0</v>
+      </c>
     </row>
-    <row r="146" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>45207</v>
       </c>
@@ -69927,8 +70833,14 @@
       <c r="FA146">
         <v>0</v>
       </c>
+      <c r="FB146">
+        <v>0</v>
+      </c>
+      <c r="FC146">
+        <v>0</v>
+      </c>
     </row>
-    <row r="147" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>45214</v>
       </c>
@@ -70400,8 +71312,14 @@
       <c r="FA147">
         <v>0</v>
       </c>
+      <c r="FB147">
+        <v>0</v>
+      </c>
+      <c r="FC147">
+        <v>0</v>
+      </c>
     </row>
-    <row r="148" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>45221</v>
       </c>
@@ -70873,8 +71791,14 @@
       <c r="FA148">
         <v>0</v>
       </c>
+      <c r="FB148">
+        <v>0</v>
+      </c>
+      <c r="FC148">
+        <v>0</v>
+      </c>
     </row>
-    <row r="149" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>45228</v>
       </c>
@@ -71346,8 +72270,14 @@
       <c r="FA149">
         <v>0</v>
       </c>
+      <c r="FB149">
+        <v>0</v>
+      </c>
+      <c r="FC149">
+        <v>0</v>
+      </c>
     </row>
-    <row r="150" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>45235</v>
       </c>
@@ -71819,8 +72749,14 @@
       <c r="FA150">
         <v>0</v>
       </c>
+      <c r="FB150">
+        <v>0</v>
+      </c>
+      <c r="FC150">
+        <v>0</v>
+      </c>
     </row>
-    <row r="151" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>45242</v>
       </c>
@@ -72292,8 +73228,14 @@
       <c r="FA151">
         <v>0</v>
       </c>
+      <c r="FB151">
+        <v>14664.63</v>
+      </c>
+      <c r="FC151">
+        <v>0</v>
+      </c>
     </row>
-    <row r="152" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>45249</v>
       </c>
@@ -72765,8 +73707,14 @@
       <c r="FA152">
         <v>0</v>
       </c>
+      <c r="FB152">
+        <v>14664.63</v>
+      </c>
+      <c r="FC152">
+        <v>0</v>
+      </c>
     </row>
-    <row r="153" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>45256</v>
       </c>
@@ -73238,8 +74186,14 @@
       <c r="FA153">
         <v>0</v>
       </c>
+      <c r="FB153">
+        <v>142224.66</v>
+      </c>
+      <c r="FC153">
+        <v>51947030</v>
+      </c>
     </row>
-    <row r="154" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>45263</v>
       </c>
@@ -73711,8 +74665,14 @@
       <c r="FA154">
         <v>0</v>
       </c>
+      <c r="FB154">
+        <v>142224.66</v>
+      </c>
+      <c r="FC154">
+        <v>51947030</v>
+      </c>
     </row>
-    <row r="155" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>45270</v>
       </c>
@@ -74184,8 +75144,14 @@
       <c r="FA155">
         <v>0</v>
       </c>
+      <c r="FB155">
+        <v>0</v>
+      </c>
+      <c r="FC155">
+        <v>0</v>
+      </c>
     </row>
-    <row r="156" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>45277</v>
       </c>
@@ -74657,8 +75623,14 @@
       <c r="FA156">
         <v>0</v>
       </c>
+      <c r="FB156">
+        <v>0</v>
+      </c>
+      <c r="FC156">
+        <v>0</v>
+      </c>
     </row>
-    <row r="157" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>45284</v>
       </c>
@@ -75128,6 +76100,12 @@
         <v>0</v>
       </c>
       <c r="FA157">
+        <v>0</v>
+      </c>
+      <c r="FB157">
+        <v>0</v>
+      </c>
+      <c r="FC157">
         <v>0</v>
       </c>
     </row>

--- a/adstocked_media/media_data.xlsx
+++ b/adstocked_media/media_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://abeurope-my.sharepoint.com/personal/mattias_mutso_externi_cz/Documents/Documents/AsahiUK_MMM/adstocked_media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{B9ACED8E-5CC5-4528-9E70-B1C800AA62A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7AEAE86-B694-4B08-B69C-F96B3D9B8A48}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{B9ACED8E-5CC5-4528-9E70-B1C800AA62A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0035BA92-B659-41E9-9FFD-0EA482259FA3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{08679BA8-D4A7-4C84-AD3C-48D9F272419A}"/>
   </bookViews>
@@ -36,81 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="157">
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>m_paid_fb_capri_im</t>
-  </si>
-  <si>
-    <t>m_paid_fb_capri_sp</t>
-  </si>
-  <si>
-    <t>m_paid_ig_capri_im</t>
-  </si>
-  <si>
-    <t>m_paid_ig_capri_sp</t>
-  </si>
-  <si>
-    <t>m_youtube_capri_im</t>
-  </si>
-  <si>
-    <t>m_youtube_capri_sp</t>
-  </si>
-  <si>
-    <t>m_paid_fb_peroni_im</t>
-  </si>
-  <si>
-    <t>m_paid_fb_peroni_sp</t>
-  </si>
-  <si>
-    <t>m_paid_ig_peroni_im</t>
-  </si>
-  <si>
-    <t>m_paid_ig_peroni_sp</t>
-  </si>
-  <si>
-    <t>m_youtube_peroni_im</t>
-  </si>
-  <si>
-    <t>m_youtube_peroni_sp</t>
-  </si>
-  <si>
-    <t>m_paid_fb_peroni0_im</t>
-  </si>
-  <si>
-    <t>m_paid_fb_peroni0_sp</t>
-  </si>
-  <si>
-    <t>m_paid_ig_peroni0_im</t>
-  </si>
-  <si>
-    <t>m_paid_ig_peroni0_sp</t>
-  </si>
-  <si>
-    <t>m_paid_social_peroni_total_im</t>
-  </si>
-  <si>
-    <t>m_paid_social_peroni_total_sp</t>
-  </si>
-  <si>
-    <t>m_paid_social_peroni0_total_im</t>
-  </si>
-  <si>
-    <t>m_paid_social_peroni0_total_sp</t>
-  </si>
-  <si>
-    <t>m_paid_fb_asd_im</t>
-  </si>
-  <si>
-    <t>m_paid_fb_asd_sp</t>
-  </si>
-  <si>
-    <t>m_paid_ig_asd_im</t>
-  </si>
-  <si>
-    <t>m_paid_ig_asd_sp</t>
   </si>
   <si>
     <t>m_influencers_asd_im</t>
@@ -137,52 +65,7 @@
     <t>m_influencers_peroni_sp</t>
   </si>
   <si>
-    <t>m_tv_capri_love_island_sp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m_tv_capri_love_island_tvr </t>
-  </si>
-  <si>
-    <t>m_tv_grolsch_sp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m_tv_grolsch_tvr </t>
-  </si>
-  <si>
-    <t>m_tv_peroni_sp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m_tv_peroni_tvr </t>
-  </si>
-  <si>
-    <t>m_tv_asahi_sp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m_tv_asahi_tvr </t>
-  </si>
-  <si>
     <t>m_tv_asahi_paralympics_sp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m_tv_asahi_paralympics_tvr </t>
-  </si>
-  <si>
-    <t>m_tv_peroni0_f1_sp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m_tv_peroni0_f1_tvr </t>
-  </si>
-  <si>
-    <t>m_tv_peroni_euros_final_sp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m_tv_peroni_euros_final_tvr </t>
-  </si>
-  <si>
-    <t>m_pub_tv_asahi_im</t>
-  </si>
-  <si>
-    <t>m_pub_tv_asahi_sp</t>
   </si>
   <si>
     <t>m_vod_capri_im</t>
@@ -207,18 +90,6 @@
   </si>
   <si>
     <t>m_vod_asahi_sp</t>
-  </si>
-  <si>
-    <t>m_vod_cornish_orchards_im</t>
-  </si>
-  <si>
-    <t>m_vod_cornish_orchards_sp</t>
-  </si>
-  <si>
-    <t>m_vod_peroni0_c4_f1_im</t>
-  </si>
-  <si>
-    <t>m_vod_peroni0_c4_f1_sp</t>
   </si>
   <si>
     <t>m_vod_grolsch_im</t>
@@ -251,67 +122,10 @@
     <t>m_cinema_grolsch_sp</t>
   </si>
   <si>
-    <t>m_youtube_non_skippable_peroni0_f1_im</t>
-  </si>
-  <si>
-    <t>m_youtube_non_skippable_peroni0_f1_sp</t>
-  </si>
-  <si>
-    <t>m_youtube_asahi_im</t>
-  </si>
-  <si>
-    <t>m_youtube_asahi_sp</t>
-  </si>
-  <si>
-    <t>m_youtube_asahi0_im</t>
-  </si>
-  <si>
-    <t>m_youtube_asahi0_sp</t>
-  </si>
-  <si>
-    <t>m_pop_up_six_nations_asahi_im</t>
-  </si>
-  <si>
-    <t>m_pop_up_six_nations_asahi_sp</t>
-  </si>
-  <si>
-    <t>m_tv_peroni_first_dates_sponsor_tvr</t>
-  </si>
-  <si>
-    <t>m_vod_peroni_first_dates_sponsor_im</t>
-  </si>
-  <si>
-    <t>m_vod_peroni_first_dates_sponsor_sp</t>
-  </si>
-  <si>
-    <t>m_vod_peroni_now_tv_sponsor_im</t>
-  </si>
-  <si>
-    <t>m_vod_peroni_now_tv_sponsor_sp</t>
-  </si>
-  <si>
-    <t>m_ooh_asahi_imp</t>
-  </si>
-  <si>
-    <t>m_ooh_asahi_sp</t>
-  </si>
-  <si>
     <t>m_ooh_peroni_digital_sp</t>
   </si>
   <si>
     <t>m_ooh_peroni_digital_imp</t>
-  </si>
-  <si>
-    <t>m_ooh_peroni_non_digital_sp</t>
-  </si>
-  <si>
-    <t>m_ooh_peroni_non_digital_imp</t>
-  </si>
-  <si>
-    <t>m_ooh_peroni_world_cup_sp</t>
-  </si>
-  <si>
-    <t>m_ooh_peroni_world_cup_imp</t>
   </si>
   <si>
     <t>m_ooh_peroni_h2_sp</t>
@@ -326,24 +140,6 @@
     <t>m_ooh_peroni_f1_imp</t>
   </si>
   <si>
-    <t>m_ooh_peroni_capri_broadcast_sp</t>
-  </si>
-  <si>
-    <t>m_ooh_peroni_capri_broadcast_imp</t>
-  </si>
-  <si>
-    <t>m_ooh_peroni_capri_summer_sp</t>
-  </si>
-  <si>
-    <t>m_ooh_peroni_capri_summer_imp</t>
-  </si>
-  <si>
-    <t>m_ooh_peroni_moderation_jan_23_sp</t>
-  </si>
-  <si>
-    <t>m_ooh_peroni_moderation_jan_23_imp</t>
-  </si>
-  <si>
     <t>m_ooh_peroni_q4_sp</t>
   </si>
   <si>
@@ -354,18 +150,6 @@
   </si>
   <si>
     <t>m_ooh_peroni_2022_imp</t>
-  </si>
-  <si>
-    <t>m_ooh_peroni_reactive_euros_sp</t>
-  </si>
-  <si>
-    <t>m_ooh_peroni_reactive_euros_imp</t>
-  </si>
-  <si>
-    <t>m_ooh_cornish_orchards_sp</t>
-  </si>
-  <si>
-    <t>m_ooh_cornish_orchards_imp</t>
   </si>
   <si>
     <t>m_spotify_peroni_im</t>
@@ -386,103 +170,16 @@
     <t>m_spotify_peroni0_sp</t>
   </si>
   <si>
-    <t>m_paid_twitter_peroni_im</t>
-  </si>
-  <si>
-    <t>m_paid_twitter_peroni_sp</t>
-  </si>
-  <si>
-    <t>m_paid_twitter_peroni0_im</t>
-  </si>
-  <si>
-    <t>m_paid_twitter_peroni0_sp</t>
-  </si>
-  <si>
-    <t>m_paid_ig_asahi0_im</t>
-  </si>
-  <si>
-    <t>m_paid_ig_asahi0_sp</t>
-  </si>
-  <si>
-    <t>m_paid_meta_grolsch_im</t>
-  </si>
-  <si>
-    <t>m_paid_meta_grolsch_sp</t>
-  </si>
-  <si>
-    <t>m_digital_capri_timeout_partnership_im</t>
-  </si>
-  <si>
-    <t>m_digital_capri_timeout_partnership_sp</t>
-  </si>
-  <si>
-    <t>m_digital_peroni0_f1_partnership_im</t>
-  </si>
-  <si>
-    <t>m_digital_peroni0_f1_partnership_sp</t>
-  </si>
-  <si>
-    <t>m_digital_peroni_libera_dry_jan_partnership_im</t>
-  </si>
-  <si>
-    <t>m_digital_peroni_libera_dry_jan_partnership_sp</t>
-  </si>
-  <si>
-    <t>m_digital_peroni_ambassador_partnership_im</t>
-  </si>
-  <si>
-    <t>m_digital_peroni_ambassador_partnership_sp</t>
-  </si>
-  <si>
-    <t>m_digital_peroni_valentines_partnership_im</t>
-  </si>
-  <si>
-    <t>m_digital_peroni_valentines_partnership_sp</t>
-  </si>
-  <si>
-    <t>m_digital_peroni_high_imp_partnership_im</t>
-  </si>
-  <si>
-    <t>m_digital_peroni_high_imp_partnership_sp</t>
-  </si>
-  <si>
     <t>m_digital_asahi_partnership_im</t>
   </si>
   <si>
     <t>m_digital_asahi_partnership_sp</t>
   </si>
   <si>
-    <t>m_radio_asahi_talk_sport_imp</t>
-  </si>
-  <si>
-    <t>m_radio_asahi_talk_sport_sp</t>
-  </si>
-  <si>
-    <t>m_print_asahi_rwc_metro_coverwraps_circulation</t>
-  </si>
-  <si>
-    <t>m_print_asahi_rwc_metro_coverwraps_sp</t>
-  </si>
-  <si>
-    <t>m_ooh_unscored_peroni_non_digital_sp</t>
-  </si>
-  <si>
-    <t>m_ooh_unscored_peroni_digital_sp</t>
-  </si>
-  <si>
-    <t>m_ooh_unscored_capri_non_digital_sp</t>
-  </si>
-  <si>
     <t>m_tv_peroni_total_sp</t>
   </si>
   <si>
-    <t xml:space="preserve">m_tv_peroni_total_tvr </t>
-  </si>
-  <si>
     <t>m_tv_asahi_total_sp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m_tv_asahi_total_tvr </t>
   </si>
   <si>
     <t>m_vod_peroni0_total_im</t>
@@ -513,6 +210,303 @@
   </si>
   <si>
     <t>m_ooh_peroni_total_imp</t>
+  </si>
+  <si>
+    <t>m_fb_capri_im</t>
+  </si>
+  <si>
+    <t>m_fb_capri_sp</t>
+  </si>
+  <si>
+    <t>m_ig_capri_im</t>
+  </si>
+  <si>
+    <t>m_ig_capri_sp</t>
+  </si>
+  <si>
+    <t>m_yt_capri_im</t>
+  </si>
+  <si>
+    <t>m_yt_capri_sp</t>
+  </si>
+  <si>
+    <t>m_fb_peroni_im</t>
+  </si>
+  <si>
+    <t>m_fb_peroni_sp</t>
+  </si>
+  <si>
+    <t>m_ig_peroni_im</t>
+  </si>
+  <si>
+    <t>m_ig_peroni_sp</t>
+  </si>
+  <si>
+    <t>m_yt_peroni_im</t>
+  </si>
+  <si>
+    <t>m_yt_peroni_sp</t>
+  </si>
+  <si>
+    <t>m_fb_peroni0_im</t>
+  </si>
+  <si>
+    <t>m_fb_peroni0_sp</t>
+  </si>
+  <si>
+    <t>m_ig_peroni0_im</t>
+  </si>
+  <si>
+    <t>m_ig_peroni0_sp</t>
+  </si>
+  <si>
+    <t>m_social_peroni_total_im</t>
+  </si>
+  <si>
+    <t>m_social_peroni_total_sp</t>
+  </si>
+  <si>
+    <t>m_social_peroni0_total_im</t>
+  </si>
+  <si>
+    <t>m_social_peroni0_total_sp</t>
+  </si>
+  <si>
+    <t>m_fb_asd_im</t>
+  </si>
+  <si>
+    <t>m_fb_asd_sp</t>
+  </si>
+  <si>
+    <t>m_ig_asd_im</t>
+  </si>
+  <si>
+    <t>m_ig_asd_sp</t>
+  </si>
+  <si>
+    <t>m_tv_capri_total_sp</t>
+  </si>
+  <si>
+    <t>m_tv_capri_total_tvr</t>
+  </si>
+  <si>
+    <t>m_tv_grolsch_total_sp</t>
+  </si>
+  <si>
+    <t>m_tv_grolsch_total_tvr</t>
+  </si>
+  <si>
+    <t>m_tv_peroni_peroni_sp</t>
+  </si>
+  <si>
+    <t>m_tv_peroni_peroni_tvr</t>
+  </si>
+  <si>
+    <t>m_tv_asahi_asahi_sp</t>
+  </si>
+  <si>
+    <t>m_tv_asahi_asahi_tvr</t>
+  </si>
+  <si>
+    <t>m_tv_asahi_paralympics_tvr</t>
+  </si>
+  <si>
+    <t>m_tv_peroni_total_tvr</t>
+  </si>
+  <si>
+    <t>m_tv_peroni_eurosfinal_sp</t>
+  </si>
+  <si>
+    <t>m_tv_peroni_eurosfinal_tvr</t>
+  </si>
+  <si>
+    <t>m_pubtv_asahi_im</t>
+  </si>
+  <si>
+    <t>m_pubtv_asahi_sp</t>
+  </si>
+  <si>
+    <t>m_vod_cornishorchards_im</t>
+  </si>
+  <si>
+    <t>m_vod_cornishorchards_sp</t>
+  </si>
+  <si>
+    <t>m_vod_peroni0_c4f1_im</t>
+  </si>
+  <si>
+    <t>m_vod_peroni0_c4f1_sp</t>
+  </si>
+  <si>
+    <t>m_yt_peroni0_im</t>
+  </si>
+  <si>
+    <t>m_yt_peroni0_sp</t>
+  </si>
+  <si>
+    <t>m_yt_asahi_im</t>
+  </si>
+  <si>
+    <t>m_yt_asahi_sp</t>
+  </si>
+  <si>
+    <t>m_yt_asahi0_im</t>
+  </si>
+  <si>
+    <t>m_yt_asahi0_sp</t>
+  </si>
+  <si>
+    <t>m_popup6nat_asahi_im</t>
+  </si>
+  <si>
+    <t>m_popup6nat_asahi_sp</t>
+  </si>
+  <si>
+    <t>m_sponsor_peroni_firstdate_tvr</t>
+  </si>
+  <si>
+    <t>m_sponsor_peroni_firstdate_im</t>
+  </si>
+  <si>
+    <t>m_sponsor_peroni_firstdate_sp</t>
+  </si>
+  <si>
+    <t>m_sponsor_peroni_now_im</t>
+  </si>
+  <si>
+    <t>m_sponsor_peroni_now_sp</t>
+  </si>
+  <si>
+    <t>m_ooh_asahi_asahi_imp</t>
+  </si>
+  <si>
+    <t>m_ooh_asahi_asahi_sp</t>
+  </si>
+  <si>
+    <t>m_ooh_peroni_nondigital_sp</t>
+  </si>
+  <si>
+    <t>m_ooh_peroni_nondigital_imp</t>
+  </si>
+  <si>
+    <t>m_ooh_peroni_worldcup_sp</t>
+  </si>
+  <si>
+    <t>m_ooh_peroni_worldcup_imp</t>
+  </si>
+  <si>
+    <t>m_ooh_peroni_capribroadcast_sp</t>
+  </si>
+  <si>
+    <t>m_ooh_peroni_capribroadcast_imp</t>
+  </si>
+  <si>
+    <t>m_ooh_peroni_caprisummer_sp</t>
+  </si>
+  <si>
+    <t>m_ooh_peroni_caprisummer_imp</t>
+  </si>
+  <si>
+    <t>m_ooh_peroni_modjan23_sp</t>
+  </si>
+  <si>
+    <t>m_ooh_peroni_modjan23_imp</t>
+  </si>
+  <si>
+    <t>m_ooh_peroni_reacteuros_sp</t>
+  </si>
+  <si>
+    <t>m_ooh_peroni_reacteuros_imp</t>
+  </si>
+  <si>
+    <t>m_ooh_cornishorchards_sp</t>
+  </si>
+  <si>
+    <t>m_ooh_cornishorchards_imp</t>
+  </si>
+  <si>
+    <t>m_twitter_peroni_im</t>
+  </si>
+  <si>
+    <t>m_twitter_peroni_sp</t>
+  </si>
+  <si>
+    <t>m_twitter_peroni0_im</t>
+  </si>
+  <si>
+    <t>m_twitter_peroni0_sp</t>
+  </si>
+  <si>
+    <t>m_ig_asahi0_im</t>
+  </si>
+  <si>
+    <t>m_ig_asahi0_sp</t>
+  </si>
+  <si>
+    <t>m_meta_grolsch_im</t>
+  </si>
+  <si>
+    <t>m_meta_grolsch_sp</t>
+  </si>
+  <si>
+    <t>m_digital_capri_timeoutpartnership_im</t>
+  </si>
+  <si>
+    <t>m_digital_capri_timeoutpartnership_sp</t>
+  </si>
+  <si>
+    <t>m_digital_peroni0_f1partnership_im</t>
+  </si>
+  <si>
+    <t>m_digital_peroni0_f1partnership_sp</t>
+  </si>
+  <si>
+    <t>m_digital_peroni_liberapartnership_im</t>
+  </si>
+  <si>
+    <t>m_digital_peroni_liberapartnership_sp</t>
+  </si>
+  <si>
+    <t>m_digital_peroni_ambassadorpartnership_im</t>
+  </si>
+  <si>
+    <t>m_digital_peroni_ambassadorpartnership_sp</t>
+  </si>
+  <si>
+    <t>m_digital_peroni_valentinespartnership_im</t>
+  </si>
+  <si>
+    <t>m_digital_peroni_valentinespartnership_sp</t>
+  </si>
+  <si>
+    <t>m_digital_peroni_highimppartnership_im</t>
+  </si>
+  <si>
+    <t>m_digital_peroni_highimppartnership_sp</t>
+  </si>
+  <si>
+    <t>m_radio_asahi_imp</t>
+  </si>
+  <si>
+    <t>m_radio_asahi_sp</t>
+  </si>
+  <si>
+    <t>m_print_asahi_circulation</t>
+  </si>
+  <si>
+    <t>m_print_asahi_sp</t>
+  </si>
+  <si>
+    <t>m_oohunscored_peroni_nondigital_sp</t>
+  </si>
+  <si>
+    <t>m_oohunscored_peroni_digital_sp</t>
+  </si>
+  <si>
+    <t>m_oohunscored_capri_nondigital_sp</t>
+  </si>
+  <si>
+    <t>m_tv_asahi_total_tvr</t>
   </si>
 </sst>
 </file>
@@ -887,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDA9B9A-9634-4913-9070-7E7AEF315551}">
   <dimension ref="A1:FK157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="ET1" workbookViewId="0">
-      <selection activeCell="FD10" sqref="FD10"/>
+    <sheetView tabSelected="1" topLeftCell="ER1" workbookViewId="0">
+      <selection activeCell="FA1" sqref="FA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -901,478 +895,478 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W1" t="s">
+        <v>79</v>
+      </c>
+      <c r="X1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="AA1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="AB1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="AC1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="AD1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="AE1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="AF1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="AG1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AH1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AQ1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AY1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AZ1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="BA1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="BB1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="BC1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="BD1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="BE1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="BF1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="BK1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="BL1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="BM1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="BN1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="BO1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="BP1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="BQ1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="BR1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="BS1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="BT1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>106</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>107</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>112</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>113</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CI1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="CJ1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="CK1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>117</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CO1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="CP1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="CQ1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="CR1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="CS1" t="s">
+        <v>119</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>121</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>123</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>124</v>
+      </c>
+      <c r="CY1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="CZ1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="DA1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="DB1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="DC1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DG1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="DH1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="DI1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="DJ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="DK1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="DL1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="DM1" t="s">
+        <v>129</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>130</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>131</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>132</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>133</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>134</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>135</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>136</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>137</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>138</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>140</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>141</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>145</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>146</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>147</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>148</v>
+      </c>
+      <c r="EG1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="EH1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="EI1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>154</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>155</v>
+      </c>
+      <c r="EP1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="EQ1" t="s">
+        <v>91</v>
+      </c>
+      <c r="ER1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="ES1" t="s">
+        <v>156</v>
+      </c>
+      <c r="ET1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="EU1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="EV1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="EW1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="EX1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="EY1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="EZ1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="FA1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="FB1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="FC1" t="s">
         <v>57</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>102</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DL1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DM1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DN1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DO1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DP1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DQ1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DR1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DS1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DU1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DV1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DX1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DY1" t="s">
-        <v>128</v>
-      </c>
-      <c r="DZ1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EA1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EB1" t="s">
-        <v>131</v>
-      </c>
-      <c r="EC1" t="s">
-        <v>132</v>
-      </c>
-      <c r="ED1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EE1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EF1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EG1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EH1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EI1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EJ1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EK1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EL1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EM1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EN1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EO1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EP1" t="s">
-        <v>145</v>
-      </c>
-      <c r="EQ1" t="s">
-        <v>146</v>
-      </c>
-      <c r="ER1" t="s">
-        <v>147</v>
-      </c>
-      <c r="ES1" t="s">
-        <v>148</v>
-      </c>
-      <c r="ET1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EU1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EV1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EW1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EX1" t="s">
-        <v>153</v>
-      </c>
-      <c r="EY1" t="s">
-        <v>154</v>
-      </c>
-      <c r="EZ1" t="s">
-        <v>155</v>
-      </c>
-      <c r="FA1" t="s">
-        <v>156</v>
-      </c>
-      <c r="FB1" t="s">
-        <v>157</v>
-      </c>
-      <c r="FC1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:167" x14ac:dyDescent="0.35">

--- a/adstocked_media/media_data.xlsx
+++ b/adstocked_media/media_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://abeurope-my.sharepoint.com/personal/mattias_mutso_externi_cz/Documents/Documents/AsahiUK_MMM/adstocked_media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{B9ACED8E-5CC5-4528-9E70-B1C800AA62A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0035BA92-B659-41E9-9FFD-0EA482259FA3}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{B9ACED8E-5CC5-4528-9E70-B1C800AA62A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91263D36-7111-456E-98A3-29884D6B8AF2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{08679BA8-D4A7-4C84-AD3C-48D9F272419A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
   <si>
     <t>Date</t>
   </si>
@@ -78,12 +78,6 @@
   </si>
   <si>
     <t>m_vod_peroni_sp</t>
-  </si>
-  <si>
-    <t>m_vod_peroni0_im</t>
-  </si>
-  <si>
-    <t>m_vod_peroni0_sp</t>
   </si>
   <si>
     <t>m_vod_asahi_im</t>
@@ -508,6 +502,18 @@
   <si>
     <t>m_tv_asahi_total_tvr</t>
   </si>
+  <si>
+    <t>m_tv_peroni0_total_sp</t>
+  </si>
+  <si>
+    <t>m_tv_peroni0_total_tvr</t>
+  </si>
+  <si>
+    <t>m_vod_peroni0_peroni0_im</t>
+  </si>
+  <si>
+    <t>m_vod_peroni0_peroni0_sp</t>
+  </si>
 </sst>
 </file>
 
@@ -881,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDA9B9A-9634-4913-9070-7E7AEF315551}">
   <dimension ref="A1:FK157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="ER1" workbookViewId="0">
-      <selection activeCell="FA1" sqref="FA1"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="BC1" sqref="BC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -895,76 +901,76 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>60</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>63</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>64</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>65</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>66</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>67</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>68</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>69</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>70</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>71</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>73</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>74</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>75</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>76</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>77</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>78</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>79</v>
-      </c>
-      <c r="X1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>81</v>
       </c>
       <c r="Z1" t="s">
         <v>1</v>
@@ -991,52 +997,52 @@
         <v>8</v>
       </c>
       <c r="AH1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>82</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>83</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>84</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>85</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>86</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>87</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>89</v>
       </c>
       <c r="AP1" t="s">
         <v>9</v>
       </c>
       <c r="AQ1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT1" t="s">
         <v>90</v>
       </c>
-      <c r="AR1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>91</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>92</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>93</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>95</v>
       </c>
       <c r="AX1" t="s">
         <v>10</v>
@@ -1051,322 +1057,322 @@
         <v>13</v>
       </c>
       <c r="BB1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BD1" t="s">
         <v>14</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>15</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ1" t="s">
         <v>16</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BK1" t="s">
         <v>17</v>
       </c>
-      <c r="BF1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH1" t="s">
+      <c r="BL1" t="s">
+        <v>18</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BT1" t="s">
         <v>98</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BU1" t="s">
         <v>99</v>
       </c>
-      <c r="BJ1" t="s">
-        <v>18</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>19</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>20</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BR1" t="s">
+      <c r="BV1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>106</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>107</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI1" t="s">
         <v>26</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="CJ1" t="s">
         <v>27</v>
       </c>
-      <c r="BT1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>101</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>106</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>107</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>108</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>109</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>110</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>111</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>112</v>
-      </c>
-      <c r="CG1" t="s">
+      <c r="CK1" t="s">
         <v>113</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CL1" t="s">
         <v>114</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CM1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CO1" t="s">
         <v>28</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CP1" t="s">
         <v>29</v>
       </c>
-      <c r="CK1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>116</v>
-      </c>
-      <c r="CM1" t="s">
+      <c r="CQ1" t="s">
+        <v>30</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>31</v>
+      </c>
+      <c r="CS1" t="s">
         <v>117</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CT1" t="s">
         <v>118</v>
       </c>
-      <c r="CO1" t="s">
-        <v>30</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>31</v>
-      </c>
-      <c r="CQ1" t="s">
+      <c r="CU1" t="s">
+        <v>119</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>121</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CY1" t="s">
         <v>32</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CZ1" t="s">
         <v>33</v>
       </c>
-      <c r="CS1" t="s">
-        <v>119</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>120</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>121</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>122</v>
-      </c>
-      <c r="CW1" t="s">
+      <c r="DA1" t="s">
+        <v>34</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>35</v>
+      </c>
+      <c r="DC1" t="s">
         <v>123</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="DD1" t="s">
         <v>124</v>
       </c>
-      <c r="CY1" t="s">
-        <v>34</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>35</v>
-      </c>
-      <c r="DA1" t="s">
+      <c r="DE1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DG1" t="s">
         <v>36</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DH1" t="s">
         <v>37</v>
       </c>
-      <c r="DC1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DE1" t="s">
+      <c r="DI1" t="s">
+        <v>38</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>39</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>40</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>41</v>
+      </c>
+      <c r="DM1" t="s">
         <v>127</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DN1" t="s">
         <v>128</v>
       </c>
-      <c r="DG1" t="s">
-        <v>38</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>39</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>40</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>41</v>
-      </c>
-      <c r="DK1" t="s">
+      <c r="DO1" t="s">
+        <v>129</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>130</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>131</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>132</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>133</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>134</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>135</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>136</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>137</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>138</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>143</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>146</v>
+      </c>
+      <c r="EG1" t="s">
         <v>42</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="EH1" t="s">
         <v>43</v>
       </c>
-      <c r="DM1" t="s">
-        <v>129</v>
-      </c>
-      <c r="DN1" t="s">
-        <v>130</v>
-      </c>
-      <c r="DO1" t="s">
-        <v>131</v>
-      </c>
-      <c r="DP1" t="s">
-        <v>132</v>
-      </c>
-      <c r="DQ1" t="s">
-        <v>133</v>
-      </c>
-      <c r="DR1" t="s">
-        <v>134</v>
-      </c>
-      <c r="DS1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>136</v>
-      </c>
-      <c r="DU1" t="s">
-        <v>137</v>
-      </c>
-      <c r="DV1" t="s">
-        <v>138</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>139</v>
-      </c>
-      <c r="DX1" t="s">
-        <v>140</v>
-      </c>
-      <c r="DY1" t="s">
-        <v>141</v>
-      </c>
-      <c r="DZ1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EA1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EB1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EC1" t="s">
-        <v>145</v>
-      </c>
-      <c r="ED1" t="s">
-        <v>146</v>
-      </c>
-      <c r="EE1" t="s">
+      <c r="EI1" t="s">
         <v>147</v>
       </c>
-      <c r="EF1" t="s">
+      <c r="EJ1" t="s">
         <v>148</v>
       </c>
-      <c r="EG1" t="s">
+      <c r="EK1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EP1" t="s">
         <v>44</v>
       </c>
-      <c r="EH1" t="s">
+      <c r="EQ1" t="s">
+        <v>89</v>
+      </c>
+      <c r="ER1" t="s">
         <v>45</v>
       </c>
-      <c r="EI1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EJ1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EK1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EL1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EM1" t="s">
-        <v>153</v>
-      </c>
-      <c r="EN1" t="s">
+      <c r="ES1" t="s">
         <v>154</v>
       </c>
-      <c r="EO1" t="s">
-        <v>155</v>
-      </c>
-      <c r="EP1" t="s">
+      <c r="ET1" t="s">
         <v>46</v>
       </c>
-      <c r="EQ1" t="s">
-        <v>91</v>
-      </c>
-      <c r="ER1" t="s">
+      <c r="EU1" t="s">
         <v>47</v>
       </c>
-      <c r="ES1" t="s">
-        <v>156</v>
-      </c>
-      <c r="ET1" t="s">
+      <c r="EV1" t="s">
         <v>48</v>
       </c>
-      <c r="EU1" t="s">
+      <c r="EW1" t="s">
         <v>49</v>
       </c>
-      <c r="EV1" t="s">
+      <c r="EX1" t="s">
         <v>50</v>
       </c>
-      <c r="EW1" t="s">
+      <c r="EY1" t="s">
         <v>51</v>
       </c>
-      <c r="EX1" t="s">
+      <c r="EZ1" t="s">
         <v>52</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="FA1" t="s">
         <v>53</v>
       </c>
-      <c r="EZ1" t="s">
+      <c r="FB1" t="s">
         <v>54</v>
       </c>
-      <c r="FA1" t="s">
+      <c r="FC1" t="s">
         <v>55</v>
-      </c>
-      <c r="FB1" t="s">
-        <v>56</v>
-      </c>
-      <c r="FC1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:167" x14ac:dyDescent="0.35">

--- a/adstocked_media/media_data.xlsx
+++ b/adstocked_media/media_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://abeurope-my.sharepoint.com/personal/mattias_mutso_externi_cz/Documents/Documents/AsahiUK_MMM/adstocked_media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{B9ACED8E-5CC5-4528-9E70-B1C800AA62A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91263D36-7111-456E-98A3-29884D6B8AF2}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{B9ACED8E-5CC5-4528-9E70-B1C800AA62A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79859299-B141-4198-8BE9-2002332DD078}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{08679BA8-D4A7-4C84-AD3C-48D9F272419A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{08679BA8-D4A7-4C84-AD3C-48D9F272419A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,12 +39,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>m_influencers_asd_im</t>
-  </si>
-  <si>
-    <t>m_influencers_asd_sp</t>
   </si>
   <si>
     <t>m_influencers_peroni0_im</t>
@@ -264,18 +258,6 @@
   </si>
   <si>
     <t>m_social_peroni0_total_sp</t>
-  </si>
-  <si>
-    <t>m_fb_asd_im</t>
-  </si>
-  <si>
-    <t>m_fb_asd_sp</t>
-  </si>
-  <si>
-    <t>m_ig_asd_im</t>
-  </si>
-  <si>
-    <t>m_ig_asd_sp</t>
   </si>
   <si>
     <t>m_tv_capri_total_sp</t>
@@ -513,6 +495,24 @@
   </si>
   <si>
     <t>m_vod_peroni0_peroni0_sp</t>
+  </si>
+  <si>
+    <t>m_fb_asahi_im</t>
+  </si>
+  <si>
+    <t>m_fb_asahi_sp</t>
+  </si>
+  <si>
+    <t>m_ig_asahi_im</t>
+  </si>
+  <si>
+    <t>m_ig_asahi_sp</t>
+  </si>
+  <si>
+    <t>m_influencers_asahi_im</t>
+  </si>
+  <si>
+    <t>m_influencers_asahi_sp</t>
   </si>
 </sst>
 </file>
@@ -888,494 +888,494 @@
   <dimension ref="A1:FK157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="BC1" sqref="BC1"/>
+      <selection activeCell="AW14" sqref="AW14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:167" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:167" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>61</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>63</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>64</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>65</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>66</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>67</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>68</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>69</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>71</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>72</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>73</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
+        <v>153</v>
+      </c>
+      <c r="W1" t="s">
+        <v>154</v>
+      </c>
+      <c r="X1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" t="s">
         <v>74</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AI1" t="s">
         <v>75</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AJ1" t="s">
         <v>76</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AK1" t="s">
         <v>77</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AL1" t="s">
         <v>78</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AM1" t="s">
         <v>79</v>
       </c>
-      <c r="Z1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF1" t="s">
+      <c r="AN1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP1" t="s">
         <v>7</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AQ1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX1" t="s">
         <v>8</v>
       </c>
-      <c r="AH1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK1" t="s">
+      <c r="AY1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>18</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>103</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>106</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>24</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>25</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>107</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>26</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>27</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>28</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>29</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>112</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>113</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>30</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>31</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>32</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>33</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>34</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>35</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>37</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>38</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>39</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>129</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>130</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>131</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>132</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>133</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>137</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>40</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>41</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>146</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>147</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>42</v>
+      </c>
+      <c r="EQ1" t="s">
         <v>83</v>
       </c>
-      <c r="AL1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>12</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>13</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>158</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>14</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>15</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>17</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>18</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>19</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>20</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>101</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>105</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>106</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>107</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>108</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>109</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>110</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>111</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>112</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>26</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>27</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>113</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>114</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>116</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>28</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>29</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>30</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>31</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>117</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>118</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>119</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>120</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>121</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>122</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>32</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>33</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>34</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>35</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>37</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>38</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>39</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>40</v>
-      </c>
-      <c r="DL1" t="s">
-        <v>41</v>
-      </c>
-      <c r="DM1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DN1" t="s">
-        <v>128</v>
-      </c>
-      <c r="DO1" t="s">
-        <v>129</v>
-      </c>
-      <c r="DP1" t="s">
-        <v>130</v>
-      </c>
-      <c r="DQ1" t="s">
-        <v>131</v>
-      </c>
-      <c r="DR1" t="s">
-        <v>132</v>
-      </c>
-      <c r="DS1" t="s">
-        <v>133</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>134</v>
-      </c>
-      <c r="DU1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DV1" t="s">
-        <v>136</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>137</v>
-      </c>
-      <c r="DX1" t="s">
-        <v>138</v>
-      </c>
-      <c r="DY1" t="s">
-        <v>139</v>
-      </c>
-      <c r="DZ1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EA1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EB1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EC1" t="s">
-        <v>143</v>
-      </c>
-      <c r="ED1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EE1" t="s">
-        <v>145</v>
-      </c>
-      <c r="EF1" t="s">
-        <v>146</v>
-      </c>
-      <c r="EG1" t="s">
-        <v>42</v>
-      </c>
-      <c r="EH1" t="s">
+      <c r="ER1" t="s">
         <v>43</v>
       </c>
-      <c r="EI1" t="s">
-        <v>147</v>
-      </c>
-      <c r="EJ1" t="s">
+      <c r="ES1" t="s">
         <v>148</v>
       </c>
-      <c r="EK1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EL1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EM1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EN1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EO1" t="s">
-        <v>153</v>
-      </c>
-      <c r="EP1" t="s">
+      <c r="ET1" t="s">
         <v>44</v>
       </c>
-      <c r="EQ1" t="s">
-        <v>89</v>
-      </c>
-      <c r="ER1" t="s">
+      <c r="EU1" t="s">
         <v>45</v>
       </c>
-      <c r="ES1" t="s">
-        <v>154</v>
-      </c>
-      <c r="ET1" t="s">
+      <c r="EV1" t="s">
         <v>46</v>
       </c>
-      <c r="EU1" t="s">
+      <c r="EW1" t="s">
         <v>47</v>
       </c>
-      <c r="EV1" t="s">
+      <c r="EX1" t="s">
         <v>48</v>
       </c>
-      <c r="EW1" t="s">
+      <c r="EY1" t="s">
         <v>49</v>
       </c>
-      <c r="EX1" t="s">
+      <c r="EZ1" t="s">
         <v>50</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="FA1" t="s">
         <v>51</v>
       </c>
-      <c r="EZ1" t="s">
+      <c r="FB1" t="s">
         <v>52</v>
       </c>
-      <c r="FA1" t="s">
+      <c r="FC1" t="s">
         <v>53</v>
       </c>
-      <c r="FB1" t="s">
-        <v>54</v>
-      </c>
-      <c r="FC1" t="s">
-        <v>55</v>
-      </c>
     </row>
-    <row r="2" spans="1:167" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:167" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44199</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:167" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:167" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44206</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:167" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:167" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44213</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:167" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:167" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44220</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:167" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44227</v>
       </c>
@@ -3775,7 +3775,7 @@
       <c r="FJ6" s="4"/>
       <c r="FK6" s="4"/>
     </row>
-    <row r="7" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:167" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44234</v>
       </c>
@@ -4259,7 +4259,7 @@
       <c r="FJ7" s="4"/>
       <c r="FK7" s="4"/>
     </row>
-    <row r="8" spans="1:167" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:167" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44241</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:167" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:167" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44248</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:167" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:167" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44255</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:167" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:167" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44262</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:167" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:167" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44269</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:167" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:167" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44276</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:167" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:167" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44283</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:167" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:167" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44290</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:167" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:167" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44297</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44304</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44311</v>
       </c>
@@ -9528,7 +9528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44318</v>
       </c>
@@ -10007,7 +10007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44325</v>
       </c>
@@ -10486,7 +10486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44332</v>
       </c>
@@ -10965,7 +10965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44339</v>
       </c>
@@ -11444,7 +11444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44346</v>
       </c>
@@ -11923,7 +11923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44353</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44360</v>
       </c>
@@ -12881,7 +12881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44367</v>
       </c>
@@ -13360,7 +13360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44374</v>
       </c>
@@ -13839,7 +13839,7 @@
         <v>8582362</v>
       </c>
     </row>
-    <row r="28" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44381</v>
       </c>
@@ -14318,7 +14318,7 @@
         <v>10771066</v>
       </c>
     </row>
-    <row r="29" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44388</v>
       </c>
@@ -14797,7 +14797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44395</v>
       </c>
@@ -15276,7 +15276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44402</v>
       </c>
@@ -15755,7 +15755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44409</v>
       </c>
@@ -16234,7 +16234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44416</v>
       </c>
@@ -16713,7 +16713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44423</v>
       </c>
@@ -17192,7 +17192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44430</v>
       </c>
@@ -17671,7 +17671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44437</v>
       </c>
@@ -18150,7 +18150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44444</v>
       </c>
@@ -18629,7 +18629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44451</v>
       </c>
@@ -19108,7 +19108,7 @@
         <v>4134244</v>
       </c>
     </row>
-    <row r="39" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44458</v>
       </c>
@@ -19587,7 +19587,7 @@
         <v>4134244</v>
       </c>
     </row>
-    <row r="40" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44465</v>
       </c>
@@ -20066,7 +20066,7 @@
         <v>8503005</v>
       </c>
     </row>
-    <row r="41" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44472</v>
       </c>
@@ -20545,7 +20545,7 @@
         <v>4368760</v>
       </c>
     </row>
-    <row r="42" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44479</v>
       </c>
@@ -21024,7 +21024,7 @@
         <v>3532690</v>
       </c>
     </row>
-    <row r="43" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44486</v>
       </c>
@@ -21503,7 +21503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44493</v>
       </c>
@@ -21982,7 +21982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44500</v>
       </c>
@@ -22461,7 +22461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44507</v>
       </c>
@@ -22940,7 +22940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44514</v>
       </c>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44521</v>
       </c>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44528</v>
       </c>
@@ -24377,7 +24377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44535</v>
       </c>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44542</v>
       </c>
@@ -25335,7 +25335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44549</v>
       </c>
@@ -25814,7 +25814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44556</v>
       </c>
@@ -26293,7 +26293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44563</v>
       </c>
@@ -26772,7 +26772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44570</v>
       </c>
@@ -27251,7 +27251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44577</v>
       </c>
@@ -27730,7 +27730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44584</v>
       </c>
@@ -28209,7 +28209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44591</v>
       </c>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44598</v>
       </c>
@@ -29167,7 +29167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44605</v>
       </c>
@@ -29646,7 +29646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44612</v>
       </c>
@@ -30125,7 +30125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44619</v>
       </c>
@@ -30604,7 +30604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44626</v>
       </c>
@@ -31083,7 +31083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44633</v>
       </c>
@@ -31562,7 +31562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44640</v>
       </c>
@@ -32041,7 +32041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44647</v>
       </c>
@@ -32520,7 +32520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44654</v>
       </c>
@@ -32999,7 +32999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44661</v>
       </c>
@@ -33478,7 +33478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44668</v>
       </c>
@@ -33957,7 +33957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44675</v>
       </c>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44682</v>
       </c>
@@ -34915,7 +34915,7 @@
         <v>75503325</v>
       </c>
     </row>
-    <row r="72" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44689</v>
       </c>
@@ -35394,7 +35394,7 @@
         <v>74513696</v>
       </c>
     </row>
-    <row r="73" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44696</v>
       </c>
@@ -35873,7 +35873,7 @@
         <v>32218482</v>
       </c>
     </row>
-    <row r="74" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44703</v>
       </c>
@@ -36352,7 +36352,7 @@
         <v>34833419</v>
       </c>
     </row>
-    <row r="75" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44710</v>
       </c>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44717</v>
       </c>
@@ -37310,7 +37310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44724</v>
       </c>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44731</v>
       </c>
@@ -38268,7 +38268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44738</v>
       </c>
@@ -38747,7 +38747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44745</v>
       </c>
@@ -39226,7 +39226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44752</v>
       </c>
@@ -39705,7 +39705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44759</v>
       </c>
@@ -40184,7 +40184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>44766</v>
       </c>
@@ -40663,7 +40663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>44773</v>
       </c>
@@ -41142,7 +41142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>44780</v>
       </c>
@@ -41621,7 +41621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>44787</v>
       </c>
@@ -42100,7 +42100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>44794</v>
       </c>
@@ -42579,7 +42579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44801</v>
       </c>
@@ -43058,7 +43058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>44808</v>
       </c>
@@ -43537,7 +43537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>44815</v>
       </c>
@@ -44016,7 +44016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>44822</v>
       </c>
@@ -44495,7 +44495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>44829</v>
       </c>
@@ -44974,7 +44974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44836</v>
       </c>
@@ -45453,7 +45453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44843</v>
       </c>
@@ -45932,7 +45932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>44850</v>
       </c>
@@ -46411,7 +46411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>44857</v>
       </c>
@@ -46890,7 +46890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>44864</v>
       </c>
@@ -47369,7 +47369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>44871</v>
       </c>
@@ -47848,7 +47848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>44878</v>
       </c>
@@ -48327,7 +48327,7 @@
         <v>172805568</v>
       </c>
     </row>
-    <row r="100" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>44885</v>
       </c>
@@ -48806,7 +48806,7 @@
         <v>173064019</v>
       </c>
     </row>
-    <row r="101" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>44892</v>
       </c>
@@ -49285,7 +49285,7 @@
         <v>44156528</v>
       </c>
     </row>
-    <row r="102" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>44899</v>
       </c>
@@ -49764,7 +49764,7 @@
         <v>44156528</v>
       </c>
     </row>
-    <row r="103" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>44906</v>
       </c>
@@ -50243,7 +50243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>44913</v>
       </c>
@@ -50722,7 +50722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>44920</v>
       </c>
@@ -51201,7 +51201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>44927</v>
       </c>
@@ -51680,7 +51680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>44934</v>
       </c>
@@ -52159,7 +52159,7 @@
         <v>20872432</v>
       </c>
     </row>
-    <row r="108" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>44941</v>
       </c>
@@ -52638,7 +52638,7 @@
         <v>21011262</v>
       </c>
     </row>
-    <row r="109" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44948</v>
       </c>
@@ -53117,7 +53117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>44955</v>
       </c>
@@ -53596,7 +53596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>44962</v>
       </c>
@@ -54075,7 +54075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>44969</v>
       </c>
@@ -54554,7 +54554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>44976</v>
       </c>
@@ -55033,7 +55033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>44983</v>
       </c>
@@ -55512,7 +55512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44990</v>
       </c>
@@ -55991,7 +55991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>44997</v>
       </c>
@@ -56470,7 +56470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>45004</v>
       </c>
@@ -56949,7 +56949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>45011</v>
       </c>
@@ -57428,7 +57428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>45018</v>
       </c>
@@ -57907,7 +57907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>45025</v>
       </c>
@@ -58386,7 +58386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>45032</v>
       </c>
@@ -58865,7 +58865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>45039</v>
       </c>
@@ -59344,7 +59344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>45046</v>
       </c>
@@ -59823,7 +59823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>45053</v>
       </c>
@@ -60302,7 +60302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>45060</v>
       </c>
@@ -60781,7 +60781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>45067</v>
       </c>
@@ -61260,7 +61260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>45074</v>
       </c>
@@ -61739,7 +61739,7 @@
         <v>154444995</v>
       </c>
     </row>
-    <row r="128" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>45081</v>
       </c>
@@ -62218,7 +62218,7 @@
         <v>154410284</v>
       </c>
     </row>
-    <row r="129" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>45088</v>
       </c>
@@ -62697,7 +62697,7 @@
         <v>25823727</v>
       </c>
     </row>
-    <row r="130" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>45095</v>
       </c>
@@ -63176,7 +63176,7 @@
         <v>25823727</v>
       </c>
     </row>
-    <row r="131" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>45102</v>
       </c>
@@ -63655,7 +63655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>45109</v>
       </c>
@@ -64134,7 +64134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>45116</v>
       </c>
@@ -64613,7 +64613,7 @@
         <v>21747975</v>
       </c>
     </row>
-    <row r="134" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>45123</v>
       </c>
@@ -65092,7 +65092,7 @@
         <v>21747975</v>
       </c>
     </row>
-    <row r="135" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>45130</v>
       </c>
@@ -65571,7 +65571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>45137</v>
       </c>
@@ -66050,7 +66050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>45144</v>
       </c>
@@ -66529,7 +66529,7 @@
         <v>24165755</v>
       </c>
     </row>
-    <row r="138" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>45151</v>
       </c>
@@ -67008,7 +67008,7 @@
         <v>24165755</v>
       </c>
     </row>
-    <row r="139" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>45158</v>
       </c>
@@ -67487,7 +67487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>45165</v>
       </c>
@@ -67966,7 +67966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>45172</v>
       </c>
@@ -68445,7 +68445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>45179</v>
       </c>
@@ -68924,7 +68924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>45186</v>
       </c>
@@ -69403,7 +69403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>45193</v>
       </c>
@@ -69882,7 +69882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>45200</v>
       </c>
@@ -70361,7 +70361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>45207</v>
       </c>
@@ -70840,7 +70840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>45214</v>
       </c>
@@ -71319,7 +71319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>45221</v>
       </c>
@@ -71798,7 +71798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>45228</v>
       </c>
@@ -72277,7 +72277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>45235</v>
       </c>
@@ -72756,7 +72756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>45242</v>
       </c>
@@ -73235,7 +73235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>45249</v>
       </c>
@@ -73714,7 +73714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>45256</v>
       </c>
@@ -74193,7 +74193,7 @@
         <v>51947030</v>
       </c>
     </row>
-    <row r="154" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>45263</v>
       </c>
@@ -74672,7 +74672,7 @@
         <v>51947030</v>
       </c>
     </row>
-    <row r="155" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>45270</v>
       </c>
@@ -75151,7 +75151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>45277</v>
       </c>
@@ -75630,7 +75630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>45284</v>
       </c>

--- a/adstocked_media/media_data.xlsx
+++ b/adstocked_media/media_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://abeurope-my.sharepoint.com/personal/mattias_mutso_externi_cz/Documents/Documents/AsahiUK_MMM/adstocked_media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{B9ACED8E-5CC5-4528-9E70-B1C800AA62A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79859299-B141-4198-8BE9-2002332DD078}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{B9ACED8E-5CC5-4528-9E70-B1C800AA62A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46DEB0DA-86AE-4699-A096-109AB53E443C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{08679BA8-D4A7-4C84-AD3C-48D9F272419A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{08679BA8-D4A7-4C84-AD3C-48D9F272419A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -353,12 +353,6 @@
     <t>m_sponsor_peroni_now_sp</t>
   </si>
   <si>
-    <t>m_ooh_asahi_asahi_imp</t>
-  </si>
-  <si>
-    <t>m_ooh_asahi_asahi_sp</t>
-  </si>
-  <si>
     <t>m_ooh_peroni_nondigital_sp</t>
   </si>
   <si>
@@ -514,6 +508,12 @@
   <si>
     <t>m_influencers_asahi_sp</t>
   </si>
+  <si>
+    <t>m_ooh_asahi_imp</t>
+  </si>
+  <si>
+    <t>m_ooh_asahi_sp</t>
+  </si>
 </sst>
 </file>
 
@@ -543,6 +543,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -887,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDA9B9A-9634-4913-9070-7E7AEF315551}">
   <dimension ref="A1:FK157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="AW14" sqref="AW14"/>
+    <sheetView tabSelected="1" topLeftCell="BX1" workbookViewId="0">
+      <selection activeCell="CG7" sqref="CG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -961,22 +962,22 @@
         <v>73</v>
       </c>
       <c r="V1" t="s">
+        <v>151</v>
+      </c>
+      <c r="W1" t="s">
+        <v>152</v>
+      </c>
+      <c r="X1" t="s">
         <v>153</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>154</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>156</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>158</v>
       </c>
       <c r="AB1" t="s">
         <v>1</v>
@@ -1027,10 +1028,10 @@
         <v>82</v>
       </c>
       <c r="AR1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AS1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AT1" t="s">
         <v>84</v>
@@ -1057,10 +1058,10 @@
         <v>11</v>
       </c>
       <c r="BB1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="BC1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="BD1" t="s">
         <v>12</v>
@@ -1150,10 +1151,10 @@
         <v>104</v>
       </c>
       <c r="CG1" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="CH1" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="CI1" t="s">
         <v>24</v>
@@ -1162,16 +1163,16 @@
         <v>25</v>
       </c>
       <c r="CK1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>106</v>
+      </c>
+      <c r="CM1" t="s">
         <v>107</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CN1" t="s">
         <v>108</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>109</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>110</v>
       </c>
       <c r="CO1" t="s">
         <v>26</v>
@@ -1186,22 +1187,22 @@
         <v>29</v>
       </c>
       <c r="CS1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CU1" t="s">
         <v>111</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CV1" t="s">
         <v>112</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CW1" t="s">
         <v>113</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CX1" t="s">
         <v>114</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>116</v>
       </c>
       <c r="CY1" t="s">
         <v>30</v>
@@ -1216,16 +1217,16 @@
         <v>33</v>
       </c>
       <c r="DC1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DE1" t="s">
         <v>117</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DF1" t="s">
         <v>118</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>120</v>
       </c>
       <c r="DG1" t="s">
         <v>34</v>
@@ -1246,64 +1247,64 @@
         <v>39</v>
       </c>
       <c r="DM1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DO1" t="s">
         <v>121</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DP1" t="s">
         <v>122</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DQ1" t="s">
         <v>123</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DR1" t="s">
         <v>124</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DS1" t="s">
         <v>125</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DT1" t="s">
         <v>126</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DU1" t="s">
         <v>127</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DV1" t="s">
         <v>128</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DW1" t="s">
         <v>129</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DX1" t="s">
         <v>130</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DY1" t="s">
         <v>131</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="DZ1" t="s">
         <v>132</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="EA1" t="s">
         <v>133</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="EB1" t="s">
         <v>134</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EC1" t="s">
         <v>135</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="ED1" t="s">
         <v>136</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="EE1" t="s">
         <v>137</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="EF1" t="s">
         <v>138</v>
-      </c>
-      <c r="EE1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EF1" t="s">
-        <v>140</v>
       </c>
       <c r="EG1" t="s">
         <v>40</v>
@@ -1312,25 +1313,25 @@
         <v>41</v>
       </c>
       <c r="EI1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EK1" t="s">
         <v>141</v>
       </c>
-      <c r="EJ1" t="s">
+      <c r="EL1" t="s">
         <v>142</v>
       </c>
-      <c r="EK1" t="s">
+      <c r="EM1" t="s">
         <v>143</v>
       </c>
-      <c r="EL1" t="s">
+      <c r="EN1" t="s">
         <v>144</v>
       </c>
-      <c r="EM1" t="s">
+      <c r="EO1" t="s">
         <v>145</v>
-      </c>
-      <c r="EN1" t="s">
-        <v>146</v>
-      </c>
-      <c r="EO1" t="s">
-        <v>147</v>
       </c>
       <c r="EP1" t="s">
         <v>42</v>
@@ -1342,7 +1343,7 @@
         <v>43</v>
       </c>
       <c r="ES1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="ET1" t="s">
         <v>44</v>

--- a/adstocked_media/media_data.xlsx
+++ b/adstocked_media/media_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://abeurope-my.sharepoint.com/personal/mattias_mutso_externi_cz/Documents/Documents/AsahiUK_MMM/adstocked_media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{B9ACED8E-5CC5-4528-9E70-B1C800AA62A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98084E85-50DA-4C2E-9C18-7E39B794918F}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{B9ACED8E-5CC5-4528-9E70-B1C800AA62A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CDD2946-861A-4EB5-A685-67D69F58DB8A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{08679BA8-D4A7-4C84-AD3C-48D9F272419A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t>Date</t>
   </si>
@@ -254,9 +254,6 @@
     <t>m_social_peroni0_total_sp</t>
   </si>
   <si>
-    <t>m_tv_capri_total_sp</t>
-  </si>
-  <si>
     <t>m_tv_peroni_eurosfinal_sp</t>
   </si>
   <si>
@@ -368,12 +365,6 @@
     <t>m_digital_peroni0_f1partnership_sp</t>
   </si>
   <si>
-    <t>m_digital_peroni_liberapartnership_im</t>
-  </si>
-  <si>
-    <t>m_digital_peroni_liberapartnership_sp</t>
-  </si>
-  <si>
     <t>m_digital_peroni_ambassadorpartnership_im</t>
   </si>
   <si>
@@ -434,9 +425,6 @@
     <t>m_ooh_asahi_sp</t>
   </si>
   <si>
-    <t xml:space="preserve">m_tv_capri_total_tvr </t>
-  </si>
-  <si>
     <t>m_tv_grolsch_sp</t>
   </si>
   <si>
@@ -453,12 +441,6 @@
   </si>
   <si>
     <t xml:space="preserve">m_tv_peroni_eurosfinal_tvr </t>
-  </si>
-  <si>
-    <t>m_vod_peroni0_im</t>
-  </si>
-  <si>
-    <t>m_vod_peroni0_sp</t>
   </si>
   <si>
     <t>m_sponsor_peroni0_firstdate_tvr</t>
@@ -579,6 +561,30 @@
   </si>
   <si>
     <t>m_oohunscored_peroni0_digital_sp</t>
+  </si>
+  <si>
+    <t>m_tv_capri_sp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_tv_capri_tvr </t>
+  </si>
+  <si>
+    <t>m_vod_peroni0_peroni0_im</t>
+  </si>
+  <si>
+    <t>m_vod_peroni0_peroni0_sp</t>
+  </si>
+  <si>
+    <t>m_digital_peroni0_liberapartnership_im</t>
+  </si>
+  <si>
+    <t>m_digital_peroni0_liberapartnership_sp</t>
+  </si>
+  <si>
+    <t>m_ooh_peroni0_total_sp</t>
+  </si>
+  <si>
+    <t>m_ooh_peroni0_total_imp</t>
   </si>
 </sst>
 </file>
@@ -952,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDA9B9A-9634-4913-9070-7E7AEF315551}">
-  <dimension ref="A1:FY157"/>
+  <dimension ref="A1:GA157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EV1" workbookViewId="0">
-      <selection activeCell="FG6" sqref="FG6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -964,7 +970,7 @@
     <col min="2" max="2" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1029,22 +1035,22 @@
         <v>71</v>
       </c>
       <c r="V1" t="s">
+        <v>121</v>
+      </c>
+      <c r="W1" t="s">
+        <v>122</v>
+      </c>
+      <c r="X1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y1" t="s">
         <v>124</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>125</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>126</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>129</v>
       </c>
       <c r="AB1" t="s">
         <v>1</v>
@@ -1065,58 +1071,58 @@
         <v>6</v>
       </c>
       <c r="AH1" t="s">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="AI1" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="AJ1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AK1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AL1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AM1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AN1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AO1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AP1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AQ1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AR1" t="s">
         <v>7</v>
       </c>
       <c r="AS1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AT1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AU1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AV1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX1" t="s">
         <v>73</v>
       </c>
-      <c r="AW1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>74</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>75</v>
       </c>
       <c r="AZ1" t="s">
         <v>8</v>
@@ -1131,10 +1137,10 @@
         <v>11</v>
       </c>
       <c r="BD1" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="BE1" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="BF1" t="s">
         <v>12</v>
@@ -1143,16 +1149,16 @@
         <v>13</v>
       </c>
       <c r="BH1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI1" t="s">
         <v>76</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>77</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>78</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>79</v>
       </c>
       <c r="BL1" t="s">
         <v>14</v>
@@ -1185,49 +1191,49 @@
         <v>23</v>
       </c>
       <c r="BV1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW1" t="s">
         <v>80</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>81</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>82</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>83</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>84</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>85</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>86</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
+        <v>135</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>137</v>
+      </c>
+      <c r="CG1" t="s">
         <v>87</v>
       </c>
-      <c r="CD1" t="s">
-        <v>141</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>142</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>143</v>
-      </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>88</v>
       </c>
-      <c r="CH1" t="s">
-        <v>89</v>
-      </c>
       <c r="CI1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="CJ1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="CK1" t="s">
         <v>24</v>
@@ -1236,16 +1242,16 @@
         <v>25</v>
       </c>
       <c r="CM1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>92</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>93</v>
       </c>
       <c r="CQ1" t="s">
         <v>26</v>
@@ -1254,28 +1260,28 @@
         <v>27</v>
       </c>
       <c r="CS1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="CT1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="CU1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="CV1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="CW1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="CX1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="CY1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="CZ1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="DA1" t="s">
         <v>28</v>
@@ -1290,16 +1296,16 @@
         <v>31</v>
       </c>
       <c r="DE1" t="s">
+        <v>93</v>
+      </c>
+      <c r="DF1" t="s">
         <v>94</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DG1" t="s">
         <v>95</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DH1" t="s">
         <v>96</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>97</v>
       </c>
       <c r="DI1" t="s">
         <v>32</v>
@@ -1320,64 +1326,64 @@
         <v>37</v>
       </c>
       <c r="DO1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DP1" t="s">
         <v>98</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DQ1" t="s">
         <v>99</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DR1" t="s">
         <v>100</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DS1" t="s">
         <v>101</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DT1" t="s">
         <v>102</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DU1" t="s">
         <v>103</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DV1" t="s">
         <v>104</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DW1" t="s">
         <v>105</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DX1" t="s">
         <v>106</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="DY1" t="s">
         <v>107</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="DZ1" t="s">
         <v>108</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="EA1" t="s">
+        <v>179</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>180</v>
+      </c>
+      <c r="EC1" t="s">
         <v>109</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="ED1" t="s">
         <v>110</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EE1" t="s">
         <v>111</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="EF1" t="s">
         <v>112</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="EG1" t="s">
         <v>113</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="EH1" t="s">
         <v>114</v>
-      </c>
-      <c r="EF1" t="s">
-        <v>115</v>
-      </c>
-      <c r="EG1" t="s">
-        <v>116</v>
-      </c>
-      <c r="EH1" t="s">
-        <v>117</v>
       </c>
       <c r="EI1" t="s">
         <v>38</v>
@@ -1386,37 +1392,37 @@
         <v>39</v>
       </c>
       <c r="EK1" t="s">
+        <v>115</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>116</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>117</v>
+      </c>
+      <c r="EO1" t="s">
         <v>118</v>
       </c>
-      <c r="EL1" t="s">
+      <c r="EP1" t="s">
         <v>119</v>
       </c>
-      <c r="EM1" t="s">
-        <v>148</v>
-      </c>
-      <c r="EN1" t="s">
+      <c r="EQ1" t="s">
         <v>120</v>
-      </c>
-      <c r="EO1" t="s">
-        <v>121</v>
-      </c>
-      <c r="EP1" t="s">
-        <v>122</v>
-      </c>
-      <c r="EQ1" t="s">
-        <v>123</v>
       </c>
       <c r="ER1" t="s">
         <v>40</v>
       </c>
       <c r="ES1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="ET1" t="s">
         <v>41</v>
       </c>
       <c r="EU1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="EV1" t="s">
         <v>42</v>
@@ -1449,67 +1455,73 @@
         <v>51</v>
       </c>
       <c r="FF1" t="s">
+        <v>145</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>146</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>147</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>148</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>149</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>150</v>
+      </c>
+      <c r="FL1" t="s">
         <v>151</v>
       </c>
-      <c r="FG1" t="s">
+      <c r="FM1" t="s">
         <v>152</v>
       </c>
-      <c r="FH1" t="s">
+      <c r="FN1" t="s">
         <v>153</v>
       </c>
-      <c r="FI1" t="s">
+      <c r="FO1" t="s">
         <v>154</v>
       </c>
-      <c r="FJ1" t="s">
+      <c r="FP1" t="s">
         <v>155</v>
       </c>
-      <c r="FK1" t="s">
+      <c r="FQ1" t="s">
         <v>156</v>
       </c>
-      <c r="FL1" t="s">
+      <c r="FR1" t="s">
         <v>157</v>
       </c>
-      <c r="FM1" t="s">
+      <c r="FS1" t="s">
         <v>158</v>
       </c>
-      <c r="FN1" t="s">
+      <c r="FT1" t="s">
         <v>159</v>
       </c>
-      <c r="FO1" t="s">
+      <c r="FU1" t="s">
         <v>160</v>
       </c>
-      <c r="FP1" t="s">
+      <c r="FV1" t="s">
         <v>161</v>
       </c>
-      <c r="FQ1" t="s">
-        <v>162</v>
-      </c>
-      <c r="FR1" t="s">
-        <v>163</v>
-      </c>
-      <c r="FS1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FT1" t="s">
-        <v>165</v>
-      </c>
-      <c r="FU1" t="s">
-        <v>166</v>
-      </c>
-      <c r="FV1" t="s">
-        <v>167</v>
-      </c>
       <c r="FW1" t="s">
+        <v>168</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FY1" t="s">
         <v>174</v>
       </c>
-      <c r="FX1" t="s">
-        <v>175</v>
-      </c>
-      <c r="FY1" t="s">
-        <v>180</v>
+      <c r="FZ1" t="s">
+        <v>181</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44199</v>
       </c>
@@ -2053,8 +2065,14 @@
       <c r="FY2">
         <v>0</v>
       </c>
+      <c r="FZ2">
+        <v>0</v>
+      </c>
+      <c r="GA2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44206</v>
       </c>
@@ -2598,8 +2616,14 @@
       <c r="FY3">
         <v>0</v>
       </c>
+      <c r="FZ3">
+        <v>0</v>
+      </c>
+      <c r="GA3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44213</v>
       </c>
@@ -3143,8 +3167,14 @@
       <c r="FY4">
         <v>0</v>
       </c>
+      <c r="FZ4">
+        <v>0</v>
+      </c>
+      <c r="GA4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44220</v>
       </c>
@@ -3688,8 +3718,14 @@
       <c r="FY5">
         <v>0</v>
       </c>
+      <c r="FZ5">
+        <v>0</v>
+      </c>
+      <c r="GA5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:181" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:183" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44227</v>
       </c>
@@ -4233,8 +4269,14 @@
       <c r="FY6">
         <v>0</v>
       </c>
+      <c r="FZ6">
+        <v>0</v>
+      </c>
+      <c r="GA6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:181" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:183" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44234</v>
       </c>
@@ -4778,8 +4820,14 @@
       <c r="FY7">
         <v>0</v>
       </c>
+      <c r="FZ7">
+        <v>0</v>
+      </c>
+      <c r="GA7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44241</v>
       </c>
@@ -5323,8 +5371,14 @@
       <c r="FY8">
         <v>0</v>
       </c>
+      <c r="FZ8">
+        <v>0</v>
+      </c>
+      <c r="GA8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44248</v>
       </c>
@@ -5868,8 +5922,14 @@
       <c r="FY9">
         <v>0</v>
       </c>
+      <c r="FZ9">
+        <v>0</v>
+      </c>
+      <c r="GA9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44255</v>
       </c>
@@ -6413,8 +6473,14 @@
       <c r="FY10">
         <v>0</v>
       </c>
+      <c r="FZ10">
+        <v>0</v>
+      </c>
+      <c r="GA10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44262</v>
       </c>
@@ -6958,8 +7024,14 @@
       <c r="FY11">
         <v>0</v>
       </c>
+      <c r="FZ11">
+        <v>0</v>
+      </c>
+      <c r="GA11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44269</v>
       </c>
@@ -7503,8 +7575,14 @@
       <c r="FY12">
         <v>0</v>
       </c>
+      <c r="FZ12">
+        <v>0</v>
+      </c>
+      <c r="GA12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44276</v>
       </c>
@@ -8048,8 +8126,14 @@
       <c r="FY13">
         <v>0</v>
       </c>
+      <c r="FZ13">
+        <v>0</v>
+      </c>
+      <c r="GA13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44283</v>
       </c>
@@ -8593,8 +8677,14 @@
       <c r="FY14">
         <v>0</v>
       </c>
+      <c r="FZ14">
+        <v>0</v>
+      </c>
+      <c r="GA14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44290</v>
       </c>
@@ -9138,8 +9228,14 @@
       <c r="FY15">
         <v>0</v>
       </c>
+      <c r="FZ15">
+        <v>0</v>
+      </c>
+      <c r="GA15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44297</v>
       </c>
@@ -9683,8 +9779,14 @@
       <c r="FY16">
         <v>0</v>
       </c>
+      <c r="FZ16">
+        <v>0</v>
+      </c>
+      <c r="GA16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44304</v>
       </c>
@@ -10228,8 +10330,14 @@
       <c r="FY17">
         <v>0</v>
       </c>
+      <c r="FZ17">
+        <v>0</v>
+      </c>
+      <c r="GA17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44311</v>
       </c>
@@ -10773,8 +10881,14 @@
       <c r="FY18">
         <v>0</v>
       </c>
+      <c r="FZ18">
+        <v>0</v>
+      </c>
+      <c r="GA18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44318</v>
       </c>
@@ -11318,8 +11432,14 @@
       <c r="FY19">
         <v>0</v>
       </c>
+      <c r="FZ19">
+        <v>0</v>
+      </c>
+      <c r="GA19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44325</v>
       </c>
@@ -11863,8 +11983,14 @@
       <c r="FY20">
         <v>0</v>
       </c>
+      <c r="FZ20">
+        <v>0</v>
+      </c>
+      <c r="GA20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44332</v>
       </c>
@@ -12408,8 +12534,14 @@
       <c r="FY21">
         <v>0</v>
       </c>
+      <c r="FZ21">
+        <v>0</v>
+      </c>
+      <c r="GA21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44339</v>
       </c>
@@ -12953,8 +13085,14 @@
       <c r="FY22">
         <v>0</v>
       </c>
+      <c r="FZ22">
+        <v>0</v>
+      </c>
+      <c r="GA22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44346</v>
       </c>
@@ -13498,8 +13636,14 @@
       <c r="FY23">
         <v>0</v>
       </c>
+      <c r="FZ23">
+        <v>0</v>
+      </c>
+      <c r="GA23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44353</v>
       </c>
@@ -14043,8 +14187,14 @@
       <c r="FY24">
         <v>0</v>
       </c>
+      <c r="FZ24">
+        <v>0</v>
+      </c>
+      <c r="GA24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44360</v>
       </c>
@@ -14588,8 +14738,14 @@
       <c r="FY25">
         <v>0</v>
       </c>
+      <c r="FZ25">
+        <v>0</v>
+      </c>
+      <c r="GA25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44367</v>
       </c>
@@ -15133,8 +15289,14 @@
       <c r="FY26">
         <v>0</v>
       </c>
+      <c r="FZ26">
+        <v>0</v>
+      </c>
+      <c r="GA26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44374</v>
       </c>
@@ -15678,8 +15840,14 @@
       <c r="FY27">
         <v>0</v>
       </c>
+      <c r="FZ27">
+        <v>0</v>
+      </c>
+      <c r="GA27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44381</v>
       </c>
@@ -16223,8 +16391,14 @@
       <c r="FY28">
         <v>0</v>
       </c>
+      <c r="FZ28">
+        <v>0</v>
+      </c>
+      <c r="GA28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44388</v>
       </c>
@@ -16768,8 +16942,14 @@
       <c r="FY29">
         <v>0</v>
       </c>
+      <c r="FZ29">
+        <v>0</v>
+      </c>
+      <c r="GA29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44395</v>
       </c>
@@ -17313,8 +17493,14 @@
       <c r="FY30">
         <v>1700</v>
       </c>
+      <c r="FZ30">
+        <v>0</v>
+      </c>
+      <c r="GA30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44402</v>
       </c>
@@ -17858,8 +18044,14 @@
       <c r="FY31">
         <v>0</v>
       </c>
+      <c r="FZ31">
+        <v>0</v>
+      </c>
+      <c r="GA31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44409</v>
       </c>
@@ -18403,8 +18595,14 @@
       <c r="FY32">
         <v>0</v>
       </c>
+      <c r="FZ32">
+        <v>0</v>
+      </c>
+      <c r="GA32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44416</v>
       </c>
@@ -18948,8 +19146,14 @@
       <c r="FY33">
         <v>0</v>
       </c>
+      <c r="FZ33">
+        <v>0</v>
+      </c>
+      <c r="GA33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44423</v>
       </c>
@@ -19493,8 +19697,14 @@
       <c r="FY34">
         <v>0</v>
       </c>
+      <c r="FZ34">
+        <v>0</v>
+      </c>
+      <c r="GA34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44430</v>
       </c>
@@ -20038,8 +20248,14 @@
       <c r="FY35">
         <v>0</v>
       </c>
+      <c r="FZ35">
+        <v>0</v>
+      </c>
+      <c r="GA35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44437</v>
       </c>
@@ -20583,8 +20799,14 @@
       <c r="FY36">
         <v>0</v>
       </c>
+      <c r="FZ36">
+        <v>0</v>
+      </c>
+      <c r="GA36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44444</v>
       </c>
@@ -21128,8 +21350,14 @@
       <c r="FY37">
         <v>0</v>
       </c>
+      <c r="FZ37">
+        <v>0</v>
+      </c>
+      <c r="GA37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44451</v>
       </c>
@@ -21673,8 +21901,14 @@
       <c r="FY38">
         <v>0</v>
       </c>
+      <c r="FZ38">
+        <v>0</v>
+      </c>
+      <c r="GA38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44458</v>
       </c>
@@ -22218,8 +22452,14 @@
       <c r="FY39">
         <v>0</v>
       </c>
+      <c r="FZ39">
+        <v>0</v>
+      </c>
+      <c r="GA39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44465</v>
       </c>
@@ -22763,8 +23003,14 @@
       <c r="FY40">
         <v>0</v>
       </c>
+      <c r="FZ40">
+        <v>0</v>
+      </c>
+      <c r="GA40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44472</v>
       </c>
@@ -23308,8 +23554,14 @@
       <c r="FY41">
         <v>0</v>
       </c>
+      <c r="FZ41">
+        <v>0</v>
+      </c>
+      <c r="GA41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44479</v>
       </c>
@@ -23853,8 +24105,14 @@
       <c r="FY42">
         <v>0</v>
       </c>
+      <c r="FZ42">
+        <v>0</v>
+      </c>
+      <c r="GA42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44486</v>
       </c>
@@ -24398,8 +24656,14 @@
       <c r="FY43">
         <v>0</v>
       </c>
+      <c r="FZ43">
+        <v>0</v>
+      </c>
+      <c r="GA43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44493</v>
       </c>
@@ -24943,8 +25207,14 @@
       <c r="FY44">
         <v>0</v>
       </c>
+      <c r="FZ44">
+        <v>0</v>
+      </c>
+      <c r="GA44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44500</v>
       </c>
@@ -25488,8 +25758,14 @@
       <c r="FY45">
         <v>0</v>
       </c>
+      <c r="FZ45">
+        <v>0</v>
+      </c>
+      <c r="GA45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44507</v>
       </c>
@@ -26033,8 +26309,14 @@
       <c r="FY46">
         <v>0</v>
       </c>
+      <c r="FZ46">
+        <v>0</v>
+      </c>
+      <c r="GA46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44514</v>
       </c>
@@ -26578,8 +26860,14 @@
       <c r="FY47">
         <v>0</v>
       </c>
+      <c r="FZ47">
+        <v>0</v>
+      </c>
+      <c r="GA47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44521</v>
       </c>
@@ -27123,8 +27411,14 @@
       <c r="FY48">
         <v>0</v>
       </c>
+      <c r="FZ48">
+        <v>0</v>
+      </c>
+      <c r="GA48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44528</v>
       </c>
@@ -27668,8 +27962,14 @@
       <c r="FY49">
         <v>0</v>
       </c>
+      <c r="FZ49">
+        <v>0</v>
+      </c>
+      <c r="GA49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44535</v>
       </c>
@@ -28213,8 +28513,14 @@
       <c r="FY50">
         <v>0</v>
       </c>
+      <c r="FZ50">
+        <v>0</v>
+      </c>
+      <c r="GA50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44542</v>
       </c>
@@ -28758,8 +29064,14 @@
       <c r="FY51">
         <v>0</v>
       </c>
+      <c r="FZ51">
+        <v>157250</v>
+      </c>
+      <c r="GA51">
+        <v>10771066</v>
+      </c>
     </row>
-    <row r="52" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44549</v>
       </c>
@@ -29303,8 +29615,14 @@
       <c r="FY52">
         <v>0</v>
       </c>
+      <c r="FZ52">
+        <v>0</v>
+      </c>
+      <c r="GA52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44556</v>
       </c>
@@ -29848,8 +30166,14 @@
       <c r="FY53">
         <v>0</v>
       </c>
+      <c r="FZ53">
+        <v>0</v>
+      </c>
+      <c r="GA53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44563</v>
       </c>
@@ -30393,8 +30717,14 @@
       <c r="FY54">
         <v>0</v>
       </c>
+      <c r="FZ54">
+        <v>0</v>
+      </c>
+      <c r="GA54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44570</v>
       </c>
@@ -30938,8 +31268,14 @@
       <c r="FY55">
         <v>0</v>
       </c>
+      <c r="FZ55">
+        <v>0</v>
+      </c>
+      <c r="GA55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44577</v>
       </c>
@@ -31483,8 +31819,14 @@
       <c r="FY56">
         <v>0</v>
       </c>
+      <c r="FZ56">
+        <v>0</v>
+      </c>
+      <c r="GA56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44584</v>
       </c>
@@ -32028,8 +32370,14 @@
       <c r="FY57">
         <v>0</v>
       </c>
+      <c r="FZ57">
+        <v>0</v>
+      </c>
+      <c r="GA57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44591</v>
       </c>
@@ -32573,8 +32921,14 @@
       <c r="FY58">
         <v>0</v>
       </c>
+      <c r="FZ58">
+        <v>0</v>
+      </c>
+      <c r="GA58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44598</v>
       </c>
@@ -33118,8 +33472,14 @@
       <c r="FY59">
         <v>0</v>
       </c>
+      <c r="FZ59">
+        <v>0</v>
+      </c>
+      <c r="GA59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44605</v>
       </c>
@@ -33663,8 +34023,14 @@
       <c r="FY60">
         <v>0</v>
       </c>
+      <c r="FZ60">
+        <v>0</v>
+      </c>
+      <c r="GA60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44612</v>
       </c>
@@ -34208,8 +34574,14 @@
       <c r="FY61">
         <v>0</v>
       </c>
+      <c r="FZ61">
+        <v>0</v>
+      </c>
+      <c r="GA61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44619</v>
       </c>
@@ -34753,8 +35125,14 @@
       <c r="FY62">
         <v>0</v>
       </c>
+      <c r="FZ62">
+        <v>0</v>
+      </c>
+      <c r="GA62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44626</v>
       </c>
@@ -35298,8 +35676,14 @@
       <c r="FY63">
         <v>0</v>
       </c>
+      <c r="FZ63">
+        <v>0</v>
+      </c>
+      <c r="GA63">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44633</v>
       </c>
@@ -35843,8 +36227,14 @@
       <c r="FY64">
         <v>0</v>
       </c>
+      <c r="FZ64">
+        <v>0</v>
+      </c>
+      <c r="GA64">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44640</v>
       </c>
@@ -36388,8 +36778,14 @@
       <c r="FY65">
         <v>0</v>
       </c>
+      <c r="FZ65">
+        <v>0</v>
+      </c>
+      <c r="GA65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44647</v>
       </c>
@@ -36933,8 +37329,14 @@
       <c r="FY66">
         <v>0</v>
       </c>
+      <c r="FZ66">
+        <v>0</v>
+      </c>
+      <c r="GA66">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44654</v>
       </c>
@@ -37478,8 +37880,14 @@
       <c r="FY67">
         <v>0</v>
       </c>
+      <c r="FZ67">
+        <v>0</v>
+      </c>
+      <c r="GA67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44661</v>
       </c>
@@ -38023,8 +38431,14 @@
       <c r="FY68">
         <v>0</v>
       </c>
+      <c r="FZ68">
+        <v>0</v>
+      </c>
+      <c r="GA68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44668</v>
       </c>
@@ -38568,8 +38982,14 @@
       <c r="FY69">
         <v>0</v>
       </c>
+      <c r="FZ69">
+        <v>0</v>
+      </c>
+      <c r="GA69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44675</v>
       </c>
@@ -39113,8 +39533,14 @@
       <c r="FY70">
         <v>0</v>
       </c>
+      <c r="FZ70">
+        <v>0</v>
+      </c>
+      <c r="GA70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44682</v>
       </c>
@@ -39658,8 +40084,14 @@
       <c r="FY71">
         <v>0</v>
       </c>
+      <c r="FZ71">
+        <v>0</v>
+      </c>
+      <c r="GA71">
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44689</v>
       </c>
@@ -40203,8 +40635,14 @@
       <c r="FY72">
         <v>0</v>
       </c>
+      <c r="FZ72">
+        <v>0</v>
+      </c>
+      <c r="GA72">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44696</v>
       </c>
@@ -40748,8 +41186,14 @@
       <c r="FY73">
         <v>0</v>
       </c>
+      <c r="FZ73">
+        <v>0</v>
+      </c>
+      <c r="GA73">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44703</v>
       </c>
@@ -41293,8 +41737,14 @@
       <c r="FY74">
         <v>0</v>
       </c>
+      <c r="FZ74">
+        <v>0</v>
+      </c>
+      <c r="GA74">
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44710</v>
       </c>
@@ -41838,8 +42288,14 @@
       <c r="FY75">
         <v>0</v>
       </c>
+      <c r="FZ75">
+        <v>0</v>
+      </c>
+      <c r="GA75">
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44717</v>
       </c>
@@ -42383,8 +42839,14 @@
       <c r="FY76">
         <v>0</v>
       </c>
+      <c r="FZ76">
+        <v>0</v>
+      </c>
+      <c r="GA76">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44724</v>
       </c>
@@ -42928,8 +43390,14 @@
       <c r="FY77">
         <v>0</v>
       </c>
+      <c r="FZ77">
+        <v>0</v>
+      </c>
+      <c r="GA77">
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44731</v>
       </c>
@@ -43473,8 +43941,14 @@
       <c r="FY78">
         <v>0</v>
       </c>
+      <c r="FZ78">
+        <v>0</v>
+      </c>
+      <c r="GA78">
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44738</v>
       </c>
@@ -44018,8 +44492,14 @@
       <c r="FY79">
         <v>0</v>
       </c>
+      <c r="FZ79">
+        <v>0</v>
+      </c>
+      <c r="GA79">
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44745</v>
       </c>
@@ -44563,8 +45043,14 @@
       <c r="FY80">
         <v>0</v>
       </c>
+      <c r="FZ80">
+        <v>0</v>
+      </c>
+      <c r="GA80">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44752</v>
       </c>
@@ -45108,8 +45594,14 @@
       <c r="FY81">
         <v>0</v>
       </c>
+      <c r="FZ81">
+        <v>0</v>
+      </c>
+      <c r="GA81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44759</v>
       </c>
@@ -45653,8 +46145,14 @@
       <c r="FY82">
         <v>0</v>
       </c>
+      <c r="FZ82">
+        <v>0</v>
+      </c>
+      <c r="GA82">
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>44766</v>
       </c>
@@ -46198,8 +46696,14 @@
       <c r="FY83">
         <v>0</v>
       </c>
+      <c r="FZ83">
+        <v>0</v>
+      </c>
+      <c r="GA83">
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>44773</v>
       </c>
@@ -46743,8 +47247,14 @@
       <c r="FY84">
         <v>0</v>
       </c>
+      <c r="FZ84">
+        <v>0</v>
+      </c>
+      <c r="GA84">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>44780</v>
       </c>
@@ -47288,8 +47798,14 @@
       <c r="FY85">
         <v>0</v>
       </c>
+      <c r="FZ85">
+        <v>0</v>
+      </c>
+      <c r="GA85">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>44787</v>
       </c>
@@ -47833,8 +48349,14 @@
       <c r="FY86">
         <v>0</v>
       </c>
+      <c r="FZ86">
+        <v>0</v>
+      </c>
+      <c r="GA86">
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>44794</v>
       </c>
@@ -48378,8 +48900,14 @@
       <c r="FY87">
         <v>0</v>
       </c>
+      <c r="FZ87">
+        <v>0</v>
+      </c>
+      <c r="GA87">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44801</v>
       </c>
@@ -48923,8 +49451,14 @@
       <c r="FY88">
         <v>0</v>
       </c>
+      <c r="FZ88">
+        <v>0</v>
+      </c>
+      <c r="GA88">
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>44808</v>
       </c>
@@ -49468,8 +50002,14 @@
       <c r="FY89">
         <v>0</v>
       </c>
+      <c r="FZ89">
+        <v>0</v>
+      </c>
+      <c r="GA89">
+        <v>0</v>
+      </c>
     </row>
-    <row r="90" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>44815</v>
       </c>
@@ -50013,8 +50553,14 @@
       <c r="FY90">
         <v>0</v>
       </c>
+      <c r="FZ90">
+        <v>0</v>
+      </c>
+      <c r="GA90">
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>44822</v>
       </c>
@@ -50558,8 +51104,14 @@
       <c r="FY91">
         <v>0</v>
       </c>
+      <c r="FZ91">
+        <v>0</v>
+      </c>
+      <c r="GA91">
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>44829</v>
       </c>
@@ -51103,8 +51655,14 @@
       <c r="FY92">
         <v>0</v>
       </c>
+      <c r="FZ92">
+        <v>0</v>
+      </c>
+      <c r="GA92">
+        <v>0</v>
+      </c>
     </row>
-    <row r="93" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44836</v>
       </c>
@@ -51648,8 +52206,14 @@
       <c r="FY93">
         <v>0</v>
       </c>
+      <c r="FZ93">
+        <v>0</v>
+      </c>
+      <c r="GA93">
+        <v>0</v>
+      </c>
     </row>
-    <row r="94" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44843</v>
       </c>
@@ -52193,8 +52757,14 @@
       <c r="FY94">
         <v>0</v>
       </c>
+      <c r="FZ94">
+        <v>0</v>
+      </c>
+      <c r="GA94">
+        <v>0</v>
+      </c>
     </row>
-    <row r="95" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>44850</v>
       </c>
@@ -52738,8 +53308,14 @@
       <c r="FY95">
         <v>0</v>
       </c>
+      <c r="FZ95">
+        <v>0</v>
+      </c>
+      <c r="GA95">
+        <v>0</v>
+      </c>
     </row>
-    <row r="96" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>44857</v>
       </c>
@@ -53283,8 +53859,14 @@
       <c r="FY96">
         <v>0</v>
       </c>
+      <c r="FZ96">
+        <v>0</v>
+      </c>
+      <c r="GA96">
+        <v>0</v>
+      </c>
     </row>
-    <row r="97" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>44864</v>
       </c>
@@ -53828,8 +54410,14 @@
       <c r="FY97">
         <v>0</v>
       </c>
+      <c r="FZ97">
+        <v>0</v>
+      </c>
+      <c r="GA97">
+        <v>0</v>
+      </c>
     </row>
-    <row r="98" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>44871</v>
       </c>
@@ -54373,8 +54961,14 @@
       <c r="FY98">
         <v>0</v>
       </c>
+      <c r="FZ98">
+        <v>0</v>
+      </c>
+      <c r="GA98">
+        <v>0</v>
+      </c>
     </row>
-    <row r="99" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>44878</v>
       </c>
@@ -54918,8 +55512,14 @@
       <c r="FY99">
         <v>0</v>
       </c>
+      <c r="FZ99">
+        <v>0</v>
+      </c>
+      <c r="GA99">
+        <v>0</v>
+      </c>
     </row>
-    <row r="100" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>44885</v>
       </c>
@@ -55463,8 +56063,14 @@
       <c r="FY100">
         <v>0</v>
       </c>
+      <c r="FZ100">
+        <v>0</v>
+      </c>
+      <c r="GA100">
+        <v>0</v>
+      </c>
     </row>
-    <row r="101" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>44892</v>
       </c>
@@ -56008,8 +56614,14 @@
       <c r="FY101">
         <v>0</v>
       </c>
+      <c r="FZ101">
+        <v>0</v>
+      </c>
+      <c r="GA101">
+        <v>0</v>
+      </c>
     </row>
-    <row r="102" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>44899</v>
       </c>
@@ -56553,8 +57165,14 @@
       <c r="FY102">
         <v>0</v>
       </c>
+      <c r="FZ102">
+        <v>0</v>
+      </c>
+      <c r="GA102">
+        <v>0</v>
+      </c>
     </row>
-    <row r="103" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>44906</v>
       </c>
@@ -57098,8 +57716,14 @@
       <c r="FY103">
         <v>0</v>
       </c>
+      <c r="FZ103">
+        <v>0</v>
+      </c>
+      <c r="GA103">
+        <v>0</v>
+      </c>
     </row>
-    <row r="104" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>44913</v>
       </c>
@@ -57643,8 +58267,14 @@
       <c r="FY104">
         <v>0</v>
       </c>
+      <c r="FZ104">
+        <v>0</v>
+      </c>
+      <c r="GA104">
+        <v>0</v>
+      </c>
     </row>
-    <row r="105" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>44920</v>
       </c>
@@ -58188,8 +58818,14 @@
       <c r="FY105">
         <v>0</v>
       </c>
+      <c r="FZ105">
+        <v>0</v>
+      </c>
+      <c r="GA105">
+        <v>0</v>
+      </c>
     </row>
-    <row r="106" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>44927</v>
       </c>
@@ -58733,8 +59369,14 @@
       <c r="FY106">
         <v>0</v>
       </c>
+      <c r="FZ106">
+        <v>0</v>
+      </c>
+      <c r="GA106">
+        <v>0</v>
+      </c>
     </row>
-    <row r="107" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>44934</v>
       </c>
@@ -59278,8 +59920,14 @@
       <c r="FY107">
         <v>0</v>
       </c>
+      <c r="FZ107">
+        <v>0</v>
+      </c>
+      <c r="GA107">
+        <v>0</v>
+      </c>
     </row>
-    <row r="108" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>44941</v>
       </c>
@@ -59823,8 +60471,14 @@
       <c r="FY108">
         <v>0</v>
       </c>
+      <c r="FZ108">
+        <v>0</v>
+      </c>
+      <c r="GA108">
+        <v>0</v>
+      </c>
     </row>
-    <row r="109" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44948</v>
       </c>
@@ -60368,8 +61022,14 @@
       <c r="FY109">
         <v>0</v>
       </c>
+      <c r="FZ109">
+        <v>0</v>
+      </c>
+      <c r="GA109">
+        <v>0</v>
+      </c>
     </row>
-    <row r="110" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>44955</v>
       </c>
@@ -60913,8 +61573,14 @@
       <c r="FY110">
         <v>0</v>
       </c>
+      <c r="FZ110">
+        <v>0</v>
+      </c>
+      <c r="GA110">
+        <v>0</v>
+      </c>
     </row>
-    <row r="111" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>44962</v>
       </c>
@@ -61458,8 +62124,14 @@
       <c r="FY111">
         <v>0</v>
       </c>
+      <c r="FZ111">
+        <v>0</v>
+      </c>
+      <c r="GA111">
+        <v>0</v>
+      </c>
     </row>
-    <row r="112" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>44969</v>
       </c>
@@ -62003,8 +62675,14 @@
       <c r="FY112">
         <v>0</v>
       </c>
+      <c r="FZ112">
+        <v>0</v>
+      </c>
+      <c r="GA112">
+        <v>0</v>
+      </c>
     </row>
-    <row r="113" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>44976</v>
       </c>
@@ -62548,8 +63226,14 @@
       <c r="FY113">
         <v>0</v>
       </c>
+      <c r="FZ113">
+        <v>0</v>
+      </c>
+      <c r="GA113">
+        <v>0</v>
+      </c>
     </row>
-    <row r="114" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>44983</v>
       </c>
@@ -63093,8 +63777,14 @@
       <c r="FY114">
         <v>0</v>
       </c>
+      <c r="FZ114">
+        <v>0</v>
+      </c>
+      <c r="GA114">
+        <v>0</v>
+      </c>
     </row>
-    <row r="115" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44990</v>
       </c>
@@ -63638,8 +64328,14 @@
       <c r="FY115">
         <v>0</v>
       </c>
+      <c r="FZ115">
+        <v>0</v>
+      </c>
+      <c r="GA115">
+        <v>0</v>
+      </c>
     </row>
-    <row r="116" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>44997</v>
       </c>
@@ -64183,8 +64879,14 @@
       <c r="FY116">
         <v>0</v>
       </c>
+      <c r="FZ116">
+        <v>0</v>
+      </c>
+      <c r="GA116">
+        <v>0</v>
+      </c>
     </row>
-    <row r="117" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>45004</v>
       </c>
@@ -64728,8 +65430,14 @@
       <c r="FY117">
         <v>0</v>
       </c>
+      <c r="FZ117">
+        <v>0</v>
+      </c>
+      <c r="GA117">
+        <v>0</v>
+      </c>
     </row>
-    <row r="118" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>45011</v>
       </c>
@@ -65273,8 +65981,14 @@
       <c r="FY118">
         <v>0</v>
       </c>
+      <c r="FZ118">
+        <v>0</v>
+      </c>
+      <c r="GA118">
+        <v>0</v>
+      </c>
     </row>
-    <row r="119" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>45018</v>
       </c>
@@ -65818,8 +66532,14 @@
       <c r="FY119">
         <v>0</v>
       </c>
+      <c r="FZ119">
+        <v>0</v>
+      </c>
+      <c r="GA119">
+        <v>0</v>
+      </c>
     </row>
-    <row r="120" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>45025</v>
       </c>
@@ -66363,8 +67083,14 @@
       <c r="FY120">
         <v>0</v>
       </c>
+      <c r="FZ120">
+        <v>0</v>
+      </c>
+      <c r="GA120">
+        <v>0</v>
+      </c>
     </row>
-    <row r="121" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>45032</v>
       </c>
@@ -66908,8 +67634,14 @@
       <c r="FY121">
         <v>0</v>
       </c>
+      <c r="FZ121">
+        <v>0</v>
+      </c>
+      <c r="GA121">
+        <v>0</v>
+      </c>
     </row>
-    <row r="122" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>45039</v>
       </c>
@@ -67453,8 +68185,14 @@
       <c r="FY122">
         <v>0</v>
       </c>
+      <c r="FZ122">
+        <v>0</v>
+      </c>
+      <c r="GA122">
+        <v>0</v>
+      </c>
     </row>
-    <row r="123" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>45046</v>
       </c>
@@ -67998,8 +68736,14 @@
       <c r="FY123">
         <v>0</v>
       </c>
+      <c r="FZ123">
+        <v>0</v>
+      </c>
+      <c r="GA123">
+        <v>0</v>
+      </c>
     </row>
-    <row r="124" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>45053</v>
       </c>
@@ -68543,8 +69287,14 @@
       <c r="FY124">
         <v>0</v>
       </c>
+      <c r="FZ124">
+        <v>0</v>
+      </c>
+      <c r="GA124">
+        <v>0</v>
+      </c>
     </row>
-    <row r="125" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>45060</v>
       </c>
@@ -69088,8 +69838,14 @@
       <c r="FY125">
         <v>0</v>
       </c>
+      <c r="FZ125">
+        <v>0</v>
+      </c>
+      <c r="GA125">
+        <v>0</v>
+      </c>
     </row>
-    <row r="126" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>45067</v>
       </c>
@@ -69633,8 +70389,14 @@
       <c r="FY126">
         <v>0</v>
       </c>
+      <c r="FZ126">
+        <v>0</v>
+      </c>
+      <c r="GA126">
+        <v>0</v>
+      </c>
     </row>
-    <row r="127" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>45074</v>
       </c>
@@ -70178,8 +70940,14 @@
       <c r="FY127">
         <v>0</v>
       </c>
+      <c r="FZ127">
+        <v>0</v>
+      </c>
+      <c r="GA127">
+        <v>0</v>
+      </c>
     </row>
-    <row r="128" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>45081</v>
       </c>
@@ -70723,8 +71491,14 @@
       <c r="FY128">
         <v>0</v>
       </c>
+      <c r="FZ128">
+        <v>0</v>
+      </c>
+      <c r="GA128">
+        <v>0</v>
+      </c>
     </row>
-    <row r="129" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>45088</v>
       </c>
@@ -71268,8 +72042,14 @@
       <c r="FY129">
         <v>0</v>
       </c>
+      <c r="FZ129">
+        <v>0</v>
+      </c>
+      <c r="GA129">
+        <v>0</v>
+      </c>
     </row>
-    <row r="130" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>45095</v>
       </c>
@@ -71813,8 +72593,14 @@
       <c r="FY130">
         <v>0</v>
       </c>
+      <c r="FZ130">
+        <v>93174.827399999907</v>
+      </c>
+      <c r="GA130">
+        <v>20872432</v>
+      </c>
     </row>
-    <row r="131" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>45102</v>
       </c>
@@ -72358,8 +73144,14 @@
       <c r="FY131">
         <v>0</v>
       </c>
+      <c r="FZ131">
+        <v>94880.702599999902</v>
+      </c>
+      <c r="GA131">
+        <v>21011262</v>
+      </c>
     </row>
-    <row r="132" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>45109</v>
       </c>
@@ -72903,8 +73695,14 @@
       <c r="FY132">
         <v>0</v>
       </c>
+      <c r="FZ132">
+        <v>0</v>
+      </c>
+      <c r="GA132">
+        <v>0</v>
+      </c>
     </row>
-    <row r="133" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>45116</v>
       </c>
@@ -73448,8 +74246,14 @@
       <c r="FY133">
         <v>0</v>
       </c>
+      <c r="FZ133">
+        <v>0</v>
+      </c>
+      <c r="GA133">
+        <v>0</v>
+      </c>
     </row>
-    <row r="134" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>45123</v>
       </c>
@@ -73993,8 +74797,14 @@
       <c r="FY134">
         <v>0</v>
       </c>
+      <c r="FZ134">
+        <v>0</v>
+      </c>
+      <c r="GA134">
+        <v>0</v>
+      </c>
     </row>
-    <row r="135" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>45130</v>
       </c>
@@ -74538,8 +75348,14 @@
       <c r="FY135">
         <v>0</v>
       </c>
+      <c r="FZ135">
+        <v>0</v>
+      </c>
+      <c r="GA135">
+        <v>0</v>
+      </c>
     </row>
-    <row r="136" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>45137</v>
       </c>
@@ -75083,8 +75899,14 @@
       <c r="FY136">
         <v>0</v>
       </c>
+      <c r="FZ136">
+        <v>0</v>
+      </c>
+      <c r="GA136">
+        <v>0</v>
+      </c>
     </row>
-    <row r="137" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>45144</v>
       </c>
@@ -75628,8 +76450,14 @@
       <c r="FY137">
         <v>0</v>
       </c>
+      <c r="FZ137">
+        <v>0</v>
+      </c>
+      <c r="GA137">
+        <v>0</v>
+      </c>
     </row>
-    <row r="138" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>45151</v>
       </c>
@@ -76173,8 +77001,14 @@
       <c r="FY138">
         <v>0</v>
       </c>
+      <c r="FZ138">
+        <v>0</v>
+      </c>
+      <c r="GA138">
+        <v>0</v>
+      </c>
     </row>
-    <row r="139" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>45158</v>
       </c>
@@ -76718,8 +77552,14 @@
       <c r="FY139">
         <v>0</v>
       </c>
+      <c r="FZ139">
+        <v>0</v>
+      </c>
+      <c r="GA139">
+        <v>0</v>
+      </c>
     </row>
-    <row r="140" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>45165</v>
       </c>
@@ -77263,8 +78103,14 @@
       <c r="FY140">
         <v>0</v>
       </c>
+      <c r="FZ140">
+        <v>0</v>
+      </c>
+      <c r="GA140">
+        <v>0</v>
+      </c>
     </row>
-    <row r="141" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>45172</v>
       </c>
@@ -77808,8 +78654,14 @@
       <c r="FY141">
         <v>0</v>
       </c>
+      <c r="FZ141">
+        <v>0</v>
+      </c>
+      <c r="GA141">
+        <v>0</v>
+      </c>
     </row>
-    <row r="142" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>45179</v>
       </c>
@@ -78353,8 +79205,14 @@
       <c r="FY142">
         <v>0</v>
       </c>
+      <c r="FZ142">
+        <v>0</v>
+      </c>
+      <c r="GA142">
+        <v>0</v>
+      </c>
     </row>
-    <row r="143" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>45186</v>
       </c>
@@ -78898,8 +79756,14 @@
       <c r="FY143">
         <v>0</v>
       </c>
+      <c r="FZ143">
+        <v>0</v>
+      </c>
+      <c r="GA143">
+        <v>0</v>
+      </c>
     </row>
-    <row r="144" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>45193</v>
       </c>
@@ -79443,8 +80307,14 @@
       <c r="FY144">
         <v>0</v>
       </c>
+      <c r="FZ144">
+        <v>0</v>
+      </c>
+      <c r="GA144">
+        <v>0</v>
+      </c>
     </row>
-    <row r="145" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>45200</v>
       </c>
@@ -79988,8 +80858,14 @@
       <c r="FY145">
         <v>0</v>
       </c>
+      <c r="FZ145">
+        <v>0</v>
+      </c>
+      <c r="GA145">
+        <v>0</v>
+      </c>
     </row>
-    <row r="146" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>45207</v>
       </c>
@@ -80533,8 +81409,14 @@
       <c r="FY146">
         <v>0</v>
       </c>
+      <c r="FZ146">
+        <v>0</v>
+      </c>
+      <c r="GA146">
+        <v>0</v>
+      </c>
     </row>
-    <row r="147" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>45214</v>
       </c>
@@ -81078,8 +81960,14 @@
       <c r="FY147">
         <v>0</v>
       </c>
+      <c r="FZ147">
+        <v>0</v>
+      </c>
+      <c r="GA147">
+        <v>0</v>
+      </c>
     </row>
-    <row r="148" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>45221</v>
       </c>
@@ -81623,8 +82511,14 @@
       <c r="FY148">
         <v>0</v>
       </c>
+      <c r="FZ148">
+        <v>0</v>
+      </c>
+      <c r="GA148">
+        <v>0</v>
+      </c>
     </row>
-    <row r="149" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>45228</v>
       </c>
@@ -82168,8 +83062,14 @@
       <c r="FY149">
         <v>0</v>
       </c>
+      <c r="FZ149">
+        <v>0</v>
+      </c>
+      <c r="GA149">
+        <v>0</v>
+      </c>
     </row>
-    <row r="150" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>45235</v>
       </c>
@@ -82713,8 +83613,14 @@
       <c r="FY150">
         <v>0</v>
       </c>
+      <c r="FZ150">
+        <v>0</v>
+      </c>
+      <c r="GA150">
+        <v>0</v>
+      </c>
     </row>
-    <row r="151" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>45242</v>
       </c>
@@ -83258,8 +84164,14 @@
       <c r="FY151">
         <v>0</v>
       </c>
+      <c r="FZ151">
+        <v>0</v>
+      </c>
+      <c r="GA151">
+        <v>0</v>
+      </c>
     </row>
-    <row r="152" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>45249</v>
       </c>
@@ -83803,8 +84715,14 @@
       <c r="FY152">
         <v>0</v>
       </c>
+      <c r="FZ152">
+        <v>0</v>
+      </c>
+      <c r="GA152">
+        <v>0</v>
+      </c>
     </row>
-    <row r="153" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>45256</v>
       </c>
@@ -84348,8 +85266,14 @@
       <c r="FY153">
         <v>0</v>
       </c>
+      <c r="FZ153">
+        <v>0</v>
+      </c>
+      <c r="GA153">
+        <v>0</v>
+      </c>
     </row>
-    <row r="154" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>45263</v>
       </c>
@@ -84893,8 +85817,14 @@
       <c r="FY154">
         <v>0</v>
       </c>
+      <c r="FZ154">
+        <v>0</v>
+      </c>
+      <c r="GA154">
+        <v>0</v>
+      </c>
     </row>
-    <row r="155" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>45270</v>
       </c>
@@ -85438,8 +86368,14 @@
       <c r="FY155">
         <v>0</v>
       </c>
+      <c r="FZ155">
+        <v>0</v>
+      </c>
+      <c r="GA155">
+        <v>0</v>
+      </c>
     </row>
-    <row r="156" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>45277</v>
       </c>
@@ -85983,8 +86919,14 @@
       <c r="FY156">
         <v>0</v>
       </c>
+      <c r="FZ156">
+        <v>0</v>
+      </c>
+      <c r="GA156">
+        <v>0</v>
+      </c>
     </row>
-    <row r="157" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>45284</v>
       </c>
@@ -86526,6 +87468,12 @@
         <v>0</v>
       </c>
       <c r="FY157">
+        <v>0</v>
+      </c>
+      <c r="FZ157">
+        <v>0</v>
+      </c>
+      <c r="GA157">
         <v>0</v>
       </c>
     </row>
